--- a/capiq_data/in_process_data/IQ347983.xlsx
+++ b/capiq_data/in_process_data/IQ347983.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\capiq_3\in_process_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\credit_rating_predictions-main\capiq_data\in_process_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8105168F-0FDB-4EC3-B738-68AC30EBA65A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{362ECBD3-47E3-4395-A0C9-7D13DFBC9B15}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="98" windowWidth="14400" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"9a7525ba-85e5-4904-a8b3-787e4ce3e47c"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"538af9a7-55d8-4232-8dc7-43f5b69070cf"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.45.614.5792"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -41,40 +41,40 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44257.9003703704</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44278.8607986111</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
     <definedName name="IQ_TODAY" hidden="1">0</definedName>
     <definedName name="IQ_WEEK">50000</definedName>
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
-    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$42</definedName>
-    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$42</definedName>
-    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$42</definedName>
-    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$42</definedName>
-    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$42</definedName>
-    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$42</definedName>
-    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$42</definedName>
-    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$42</definedName>
-    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$42</definedName>
-    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$42</definedName>
-    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$42</definedName>
-    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$42</definedName>
-    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$42</definedName>
-    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$42</definedName>
-    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$42</definedName>
-    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$42</definedName>
-    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$42</definedName>
-    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$42</definedName>
-    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$42</definedName>
-    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$42</definedName>
-    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$42</definedName>
-    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$42</definedName>
-    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$42</definedName>
-    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$42</definedName>
-    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$42</definedName>
-    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$42</definedName>
-    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$42</definedName>
+    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$82</definedName>
+    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$82</definedName>
+    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$82</definedName>
+    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$82</definedName>
+    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$82</definedName>
+    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$82</definedName>
+    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$82</definedName>
+    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$82</definedName>
+    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$82</definedName>
+    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$82</definedName>
+    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$82</definedName>
+    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$82</definedName>
+    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$82</definedName>
+    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$82</definedName>
+    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$82</definedName>
+    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$82</definedName>
+    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$82</definedName>
+    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$82</definedName>
+    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$82</definedName>
+    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$82</definedName>
+    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$82</definedName>
+    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$82</definedName>
+    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$82</definedName>
+    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$82</definedName>
+    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$82</definedName>
+    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$82</definedName>
+    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$82</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="106">
   <si>
     <t>Date</t>
   </si>
@@ -173,6 +173,120 @@
   </si>
   <si>
     <t>IQ_NI</t>
+  </si>
+  <si>
+    <t>FQ22001</t>
+  </si>
+  <si>
+    <t>FQ32001</t>
+  </si>
+  <si>
+    <t>FQ42001</t>
+  </si>
+  <si>
+    <t>FQ12002</t>
+  </si>
+  <si>
+    <t>FQ22002</t>
+  </si>
+  <si>
+    <t>FQ32002</t>
+  </si>
+  <si>
+    <t>FQ42002</t>
+  </si>
+  <si>
+    <t>FQ12003</t>
+  </si>
+  <si>
+    <t>FQ22003</t>
+  </si>
+  <si>
+    <t>FQ32003</t>
+  </si>
+  <si>
+    <t>FQ42003</t>
+  </si>
+  <si>
+    <t>FQ12004</t>
+  </si>
+  <si>
+    <t>FQ22004</t>
+  </si>
+  <si>
+    <t>FQ32004</t>
+  </si>
+  <si>
+    <t>FQ42004</t>
+  </si>
+  <si>
+    <t>FQ12005</t>
+  </si>
+  <si>
+    <t>FQ22005</t>
+  </si>
+  <si>
+    <t>FQ32005</t>
+  </si>
+  <si>
+    <t>FQ42005</t>
+  </si>
+  <si>
+    <t>FQ12006</t>
+  </si>
+  <si>
+    <t>FQ22006</t>
+  </si>
+  <si>
+    <t>FQ32006</t>
+  </si>
+  <si>
+    <t>FQ42006</t>
+  </si>
+  <si>
+    <t>FQ12007</t>
+  </si>
+  <si>
+    <t>FQ22007</t>
+  </si>
+  <si>
+    <t>FQ32007</t>
+  </si>
+  <si>
+    <t>FQ42007</t>
+  </si>
+  <si>
+    <t>FQ12008</t>
+  </si>
+  <si>
+    <t>FQ22008</t>
+  </si>
+  <si>
+    <t>FQ32008</t>
+  </si>
+  <si>
+    <t>FQ42008</t>
+  </si>
+  <si>
+    <t>FQ12009</t>
+  </si>
+  <si>
+    <t>FQ22009</t>
+  </si>
+  <si>
+    <t>FQ32009</t>
+  </si>
+  <si>
+    <t>FQ42009</t>
+  </si>
+  <si>
+    <t>FQ12010</t>
+  </si>
+  <si>
+    <t>FQ22010</t>
+  </si>
+  <si>
+    <t>FQ32010</t>
   </si>
   <si>
     <t>FQ42010</t>
@@ -639,7 +753,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AA82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,34 +847,34 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
-        <v>40543</v>
+        <v>36922</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2">
-        <v>26.45</v>
+        <v>-4.4859999999999998</v>
       </c>
       <c r="D2">
-        <v>155.97499999999999</v>
+        <v>3.1739999999999999</v>
       </c>
       <c r="E2">
-        <v>168.732</v>
+        <v>5.532</v>
       </c>
       <c r="F2">
-        <v>135.75299999999999</v>
+        <v>3.1739999999999999</v>
       </c>
       <c r="G2">
-        <v>646.55600000000004</v>
+        <v>375.97</v>
       </c>
       <c r="H2">
-        <v>1012.037</v>
+        <v>414.51499999999999</v>
       </c>
       <c r="I2">
-        <v>16.026</v>
+        <v>2.8260000000000001</v>
       </c>
       <c r="J2">
-        <v>3.718</v>
+        <v>123.92</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -772,161 +886,161 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>138.51499999999999</v>
+        <v>8.3810000000000002</v>
       </c>
       <c r="O2">
-        <v>152.30099999999999</v>
+        <v>132.30099999999999</v>
       </c>
       <c r="P2">
-        <v>5.1769999999999996</v>
+        <v>124.111</v>
       </c>
       <c r="Q2">
-        <v>57.189</v>
+        <v>212.976</v>
       </c>
       <c r="R2">
-        <v>40543</v>
+        <v>36922</v>
       </c>
       <c r="S2">
-        <v>792</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>859.73599999999999</v>
+        <v>282.214</v>
       </c>
       <c r="U2">
-        <v>267.14499999999998</v>
+        <v>260.66899999999998</v>
       </c>
       <c r="V2">
-        <v>51.009</v>
+        <v>-2.5609999999999999</v>
       </c>
       <c r="W2">
         <v>0</v>
       </c>
       <c r="X2">
-        <v>15.85</v>
+        <v>209.39599999999999</v>
       </c>
       <c r="Y2">
-        <v>0.74399999999999999</v>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <v>-6.0830000000000002</v>
+        <v>9.7219999999999995</v>
       </c>
       <c r="AA2">
-        <v>26.45</v>
+        <v>-4.4859999999999998</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>40633</v>
+        <v>37011</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
       <c r="C3">
-        <v>26.83</v>
+        <v>-6.4619999999999997</v>
       </c>
       <c r="D3">
-        <v>166.126</v>
+        <v>1.96</v>
       </c>
       <c r="E3">
-        <v>200.72900000000001</v>
+        <v>3.9</v>
       </c>
       <c r="F3">
-        <v>146.898</v>
+        <v>1.96</v>
       </c>
       <c r="G3">
-        <v>669.24599999999998</v>
+        <v>368.13900000000001</v>
       </c>
       <c r="H3">
-        <v>1154.529</v>
+        <v>406.42899999999997</v>
       </c>
       <c r="I3">
-        <v>9.0250000000000004</v>
+        <v>1.63</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>123.92</v>
       </c>
       <c r="K3">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>-9.1999999999999998E-2</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>217.18199999999999</v>
+        <v>6.9569999999999999</v>
       </c>
       <c r="O3">
-        <v>253.16399999999999</v>
+        <v>138.965</v>
       </c>
       <c r="P3">
-        <v>65.231999999999999</v>
+        <v>124.012</v>
       </c>
       <c r="Q3">
-        <v>22.285</v>
+        <v>-29.094000000000001</v>
       </c>
       <c r="R3">
-        <v>40633</v>
+        <v>37011</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>901.36500000000001</v>
+        <v>267.464</v>
       </c>
       <c r="U3">
-        <v>289.43</v>
+        <v>231.57499999999999</v>
       </c>
       <c r="V3">
-        <v>24.361000000000001</v>
+        <v>-5.1689999999999996</v>
       </c>
       <c r="W3">
         <v>0</v>
       </c>
       <c r="X3">
-        <v>69.891999999999996</v>
+        <v>0.40200000000000002</v>
       </c>
       <c r="Y3">
-        <v>0.46200000000000002</v>
+        <v>0</v>
       </c>
       <c r="Z3">
-        <v>35</v>
+        <v>-22.603000000000002</v>
       </c>
       <c r="AA3">
-        <v>26.83</v>
+        <v>-6.4619999999999997</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>40724</v>
+        <v>37103</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
       <c r="C4">
-        <v>34.744999999999997</v>
+        <v>-7.5359999999999996</v>
       </c>
       <c r="D4">
-        <v>185.69900000000001</v>
+        <v>3.2719999999999998</v>
       </c>
       <c r="E4">
-        <v>212.72</v>
+        <v>6.98</v>
       </c>
       <c r="F4">
-        <v>163.95400000000001</v>
+        <v>3.2719999999999998</v>
       </c>
       <c r="G4">
-        <v>700.39499999999998</v>
+        <v>362.74700000000001</v>
       </c>
       <c r="H4">
-        <v>1179.575</v>
+        <v>400.25900000000001</v>
       </c>
       <c r="I4">
-        <v>13.446</v>
+        <v>1.722</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>123.92</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -938,78 +1052,78 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>187.78</v>
+        <v>7.99</v>
       </c>
       <c r="O4">
-        <v>226.07300000000001</v>
+        <v>139.851</v>
       </c>
       <c r="P4">
-        <v>2.06</v>
+        <v>123.92</v>
       </c>
       <c r="Q4">
-        <v>58.438000000000002</v>
+        <v>-96.387</v>
       </c>
       <c r="R4">
-        <v>40724</v>
+        <v>37103</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="T4">
-        <v>953.50199999999995</v>
+        <v>260.40800000000002</v>
       </c>
       <c r="U4">
-        <v>347.86799999999999</v>
+        <v>135.18799999999999</v>
       </c>
       <c r="V4">
-        <v>78.683999999999997</v>
+        <v>-7.774</v>
       </c>
       <c r="W4">
         <v>0</v>
       </c>
       <c r="X4">
-        <v>-52.103999999999999</v>
+        <v>4.7E-2</v>
       </c>
       <c r="Y4">
-        <v>0.378</v>
+        <v>0</v>
       </c>
       <c r="Z4">
-        <v>39.1</v>
+        <v>-87.718999999999994</v>
       </c>
       <c r="AA4">
-        <v>34.744999999999997</v>
+        <v>-7.5359999999999996</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>40816</v>
+        <v>37195</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
       <c r="C5">
-        <v>65.569999999999993</v>
+        <v>-7.7889999999999997</v>
       </c>
       <c r="D5">
-        <v>204.047</v>
+        <v>1.86</v>
       </c>
       <c r="E5">
-        <v>221.29300000000001</v>
+        <v>7.1669999999999998</v>
       </c>
       <c r="F5">
-        <v>180.678</v>
+        <v>1.86</v>
       </c>
       <c r="G5">
-        <v>817.35599999999999</v>
+        <v>357.02199999999999</v>
       </c>
       <c r="H5">
-        <v>1305.0419999999999</v>
+        <v>394.01</v>
       </c>
       <c r="I5">
-        <v>14.372</v>
+        <v>1.2130000000000001</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>123.92</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -1021,78 +1135,78 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>211.244</v>
+        <v>6.9130000000000003</v>
       </c>
       <c r="O5">
-        <v>249.31399999999999</v>
+        <v>138.626</v>
       </c>
       <c r="P5">
-        <v>1.716</v>
+        <v>123.92</v>
       </c>
       <c r="Q5">
-        <v>90.286000000000001</v>
+        <v>-15.03</v>
       </c>
       <c r="R5">
-        <v>40816</v>
+        <v>37195</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5">
-        <v>1055.7280000000001</v>
+        <v>255.38399999999999</v>
       </c>
       <c r="U5">
-        <v>438.154</v>
+        <v>120.158</v>
       </c>
       <c r="V5">
-        <v>76.251999999999995</v>
+        <v>-8.0269999999999992</v>
       </c>
       <c r="W5">
         <v>0</v>
       </c>
       <c r="X5">
-        <v>8.4090000000000007</v>
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="Y5">
-        <v>0.28599999999999998</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>13</v>
+        <v>-6.5880000000000001</v>
       </c>
       <c r="AA5">
-        <v>65.569999999999993</v>
+        <v>-7.7889999999999997</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>40908</v>
+        <v>37287</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
       <c r="C6">
-        <v>48.17</v>
+        <v>-10.81</v>
       </c>
       <c r="D6">
-        <v>227.559</v>
+        <v>3.38</v>
       </c>
       <c r="E6">
-        <v>244.28800000000001</v>
+        <v>0.93500000000000005</v>
       </c>
       <c r="F6">
-        <v>198.761</v>
+        <v>3.38</v>
       </c>
       <c r="G6">
-        <v>941.27</v>
+        <v>343.661</v>
       </c>
       <c r="H6">
-        <v>1394.751</v>
+        <v>383.51499999999999</v>
       </c>
       <c r="I6">
-        <v>16.029</v>
+        <v>3.597</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>123.92</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -1104,78 +1218,78 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>227.785</v>
+        <v>9.5809999999999995</v>
       </c>
       <c r="O6">
-        <v>260.25900000000001</v>
+        <v>141.14699999999999</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>123.92</v>
       </c>
       <c r="Q6">
-        <v>102.711</v>
+        <v>48.636000000000003</v>
       </c>
       <c r="R6">
-        <v>40908</v>
+        <v>37287</v>
       </c>
       <c r="S6">
-        <v>1008</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>1134.492</v>
+        <v>242.36799999999999</v>
       </c>
       <c r="U6">
-        <v>540.86500000000001</v>
+        <v>168.79400000000001</v>
       </c>
       <c r="V6">
-        <v>90.787000000000006</v>
+        <v>-5.3040000000000003</v>
       </c>
       <c r="W6">
         <v>0</v>
       </c>
       <c r="X6">
-        <v>12.853</v>
+        <v>0.13</v>
       </c>
       <c r="Y6">
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>7.3579999999999997</v>
+        <v>54.752000000000002</v>
       </c>
       <c r="AA6">
-        <v>48.17</v>
+        <v>-10.81</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>40999</v>
+        <v>37376</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7">
-        <v>45.412999999999997</v>
+        <v>-17.105</v>
       </c>
       <c r="D7">
-        <v>244.733</v>
+        <v>0.53900000000000003</v>
       </c>
       <c r="E7">
-        <v>267.39699999999999</v>
+        <v>0.46899999999999997</v>
       </c>
       <c r="F7">
-        <v>216.465</v>
+        <v>0.53900000000000003</v>
       </c>
       <c r="G7">
-        <v>811.93399999999997</v>
+        <v>327.13900000000001</v>
       </c>
       <c r="H7">
-        <v>2017.4639999999999</v>
+        <v>370.16</v>
       </c>
       <c r="I7">
-        <v>16.023</v>
+        <v>8.032</v>
       </c>
       <c r="J7">
-        <v>247</v>
+        <v>123.92</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -1187,78 +1301,78 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>353.67700000000002</v>
+        <v>13.86</v>
       </c>
       <c r="O7">
-        <v>804.18399999999997</v>
+        <v>145.279</v>
       </c>
       <c r="P7">
-        <v>355</v>
+        <v>123.92</v>
       </c>
       <c r="Q7">
-        <v>-181.477</v>
+        <v>-47.366999999999997</v>
       </c>
       <c r="R7">
-        <v>40999</v>
+        <v>37376</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
       <c r="T7">
-        <v>1213.28</v>
+        <v>224.881</v>
       </c>
       <c r="U7">
-        <v>359.38799999999998</v>
+        <v>121.42700000000001</v>
       </c>
       <c r="V7">
-        <v>62.805</v>
+        <v>-16.448</v>
       </c>
       <c r="W7">
         <v>0</v>
       </c>
       <c r="X7">
-        <v>364.62200000000001</v>
+        <v>5.3999999999999999E-2</v>
       </c>
       <c r="Y7">
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>0</v>
+        <v>-30.023</v>
       </c>
       <c r="AA7">
-        <v>45.412999999999997</v>
+        <v>-17.105</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>41090</v>
+        <v>37468</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
       <c r="C8">
-        <v>36.258000000000003</v>
+        <v>-20.838000000000001</v>
       </c>
       <c r="D8">
-        <v>274.71899999999999</v>
+        <v>0.75700000000000001</v>
       </c>
       <c r="E8">
-        <v>282.72199999999998</v>
+        <v>0.86299999999999999</v>
       </c>
       <c r="F8">
-        <v>243.10599999999999</v>
+        <v>0.75700000000000001</v>
       </c>
       <c r="G8">
-        <v>1276.1610000000001</v>
+        <v>310.78399999999999</v>
       </c>
       <c r="H8">
-        <v>2457.61</v>
+        <v>354.06900000000002</v>
       </c>
       <c r="I8">
-        <v>23.751999999999999</v>
+        <v>9.843</v>
       </c>
       <c r="J8">
-        <v>180</v>
+        <v>123.92</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -1270,78 +1384,78 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>375.16199999999998</v>
+        <v>17.318999999999999</v>
       </c>
       <c r="O8">
-        <v>707.91600000000005</v>
+        <v>148.59100000000001</v>
       </c>
       <c r="P8">
-        <v>228</v>
+        <v>123.92</v>
       </c>
       <c r="Q8">
-        <v>446.822</v>
+        <v>-73.852999999999994</v>
       </c>
       <c r="R8">
-        <v>41090</v>
+        <v>37468</v>
       </c>
       <c r="S8">
-        <v>0</v>
+        <v>172</v>
       </c>
       <c r="T8">
-        <v>1749.694</v>
+        <v>205.47800000000001</v>
       </c>
       <c r="U8">
-        <v>806.21</v>
+        <v>47.573999999999998</v>
       </c>
       <c r="V8">
-        <v>101.527</v>
+        <v>-16.442</v>
       </c>
       <c r="W8">
         <v>0</v>
       </c>
       <c r="X8">
-        <v>350.94799999999998</v>
+        <v>0.09</v>
       </c>
       <c r="Y8">
         <v>0</v>
       </c>
       <c r="Z8">
-        <v>0</v>
+        <v>-56.067999999999998</v>
       </c>
       <c r="AA8">
-        <v>36.258000000000003</v>
+        <v>-20.838000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>41182</v>
+        <v>37560</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
       <c r="C9">
-        <v>92.18</v>
+        <v>-21.64</v>
       </c>
       <c r="D9">
-        <v>294.13600000000002</v>
+        <v>0.32300000000000001</v>
       </c>
       <c r="E9">
-        <v>311.36900000000003</v>
+        <v>0.29699999999999999</v>
       </c>
       <c r="F9">
-        <v>260.95</v>
+        <v>0.32300000000000001</v>
       </c>
       <c r="G9">
-        <v>1410.3910000000001</v>
+        <v>286.08100000000002</v>
       </c>
       <c r="H9">
-        <v>2505.6080000000002</v>
+        <v>329.70299999999997</v>
       </c>
       <c r="I9">
-        <v>21.962</v>
+        <v>8.2620000000000005</v>
       </c>
       <c r="J9">
-        <v>113</v>
+        <v>123.92</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -1353,78 +1467,78 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>361.94200000000001</v>
+        <v>14.555</v>
       </c>
       <c r="O9">
-        <v>633.173</v>
+        <v>145.68</v>
       </c>
       <c r="P9">
-        <v>161</v>
+        <v>123.92</v>
       </c>
       <c r="Q9">
-        <v>99.316000000000003</v>
+        <v>-27.37</v>
       </c>
       <c r="R9">
-        <v>41182</v>
+        <v>37560</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
       <c r="T9">
-        <v>1872.4349999999999</v>
+        <v>184.023</v>
       </c>
       <c r="U9">
-        <v>905.52599999999995</v>
+        <v>20.204000000000001</v>
       </c>
       <c r="V9">
-        <v>141.32400000000001</v>
+        <v>-24.303000000000001</v>
       </c>
       <c r="W9">
         <v>0</v>
       </c>
       <c r="X9">
-        <v>-36.688000000000002</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="Y9">
         <v>0</v>
       </c>
       <c r="Z9">
-        <v>0</v>
+        <v>-2.0840000000000001</v>
       </c>
       <c r="AA9">
-        <v>92.179000000000002</v>
+        <v>-21.64</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>41274</v>
+        <v>37652</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
       <c r="C10">
-        <v>80.971000000000004</v>
+        <v>-21.465</v>
       </c>
       <c r="D10">
-        <v>320.52600000000001</v>
+        <v>0.22</v>
       </c>
       <c r="E10">
-        <v>295.59800000000001</v>
+        <v>0.38900000000000001</v>
       </c>
       <c r="F10">
-        <v>287.37900000000002</v>
+        <v>0.22</v>
       </c>
       <c r="G10">
-        <v>1495.6</v>
+        <v>255.54400000000001</v>
       </c>
       <c r="H10">
-        <v>2613.56</v>
+        <v>305.83699999999999</v>
       </c>
       <c r="I10">
-        <v>21.488</v>
+        <v>6.2889999999999997</v>
       </c>
       <c r="J10">
-        <v>101</v>
+        <v>123.92</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1436,78 +1550,78 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>360.089</v>
+        <v>12.515000000000001</v>
       </c>
       <c r="O10">
-        <v>642.71</v>
+        <v>143.49299999999999</v>
       </c>
       <c r="P10">
-        <v>149</v>
+        <v>123.92</v>
       </c>
       <c r="Q10">
-        <v>83.974999999999994</v>
+        <v>32.097000000000001</v>
       </c>
       <c r="R10">
-        <v>41274</v>
+        <v>37652</v>
       </c>
       <c r="S10">
-        <v>1373</v>
+        <v>0</v>
       </c>
       <c r="T10">
-        <v>1970.85</v>
+        <v>162.34399999999999</v>
       </c>
       <c r="U10">
-        <v>989.50099999999998</v>
+        <v>52.301000000000002</v>
       </c>
       <c r="V10">
-        <v>104.95699999999999</v>
+        <v>-29.611000000000001</v>
       </c>
       <c r="W10">
         <v>0</v>
       </c>
       <c r="X10">
-        <v>-12.506</v>
+        <v>4.1000000000000002E-2</v>
       </c>
       <c r="Y10">
         <v>0</v>
       </c>
       <c r="Z10">
-        <v>0</v>
+        <v>62.066000000000003</v>
       </c>
       <c r="AA10">
-        <v>80.971000000000004</v>
+        <v>-21.465</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>41364</v>
+        <v>37741</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
       </c>
       <c r="C11">
-        <v>82.216999999999999</v>
+        <v>-19.777999999999999</v>
       </c>
       <c r="D11">
-        <v>338.94099999999997</v>
+        <v>0.16700000000000001</v>
       </c>
       <c r="E11">
-        <v>323.90699999999998</v>
+        <v>1.393</v>
       </c>
       <c r="F11">
-        <v>303.67200000000003</v>
+        <v>0.16700000000000001</v>
       </c>
       <c r="G11">
-        <v>1550.0409999999999</v>
+        <v>234.73400000000001</v>
       </c>
       <c r="H11">
-        <v>2685.8809999999999</v>
+        <v>282.04300000000001</v>
       </c>
       <c r="I11">
-        <v>25.585999999999999</v>
+        <v>2.246</v>
       </c>
       <c r="J11">
-        <v>101</v>
+        <v>123.92</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -1519,78 +1633,78 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>295.74700000000001</v>
+        <v>8.8160000000000007</v>
       </c>
       <c r="O11">
-        <v>595.82799999999997</v>
+        <v>139.64699999999999</v>
       </c>
       <c r="P11">
-        <v>149</v>
+        <v>123.92</v>
       </c>
       <c r="Q11">
-        <v>33.459000000000003</v>
+        <v>8.907</v>
       </c>
       <c r="R11">
-        <v>41364</v>
+        <v>37741</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
       <c r="T11">
-        <v>2090.0529999999999</v>
+        <v>142.39599999999999</v>
       </c>
       <c r="U11">
-        <v>1022.96</v>
+        <v>61.207999999999998</v>
       </c>
       <c r="V11">
-        <v>46.497</v>
+        <v>-21.484000000000002</v>
       </c>
       <c r="W11">
         <v>0</v>
       </c>
       <c r="X11">
-        <v>-4.3079999999999998</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="Y11">
         <v>0</v>
       </c>
       <c r="Z11">
-        <v>0</v>
+        <v>30.917000000000002</v>
       </c>
       <c r="AA11">
-        <v>82.216999999999999</v>
+        <v>-19.777999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>41455</v>
+        <v>37833</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
       </c>
       <c r="C12">
-        <v>95.885000000000005</v>
+        <v>-21.584</v>
       </c>
       <c r="D12">
-        <v>370.09100000000001</v>
+        <v>0.16700000000000001</v>
       </c>
       <c r="E12">
-        <v>355.28399999999999</v>
+        <v>1.54</v>
       </c>
       <c r="F12">
-        <v>330.714</v>
+        <v>0.16700000000000001</v>
       </c>
       <c r="G12">
-        <v>1678.633</v>
+        <v>220.91</v>
       </c>
       <c r="H12">
-        <v>2815.2379999999998</v>
+        <v>267.22699999999998</v>
       </c>
       <c r="I12">
-        <v>25.587</v>
+        <v>8.7100000000000009</v>
       </c>
       <c r="J12">
-        <v>89</v>
+        <v>123.92</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1602,78 +1716,78 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>302.97800000000001</v>
+        <v>16.257000000000001</v>
       </c>
       <c r="O12">
-        <v>603.69799999999998</v>
+        <v>146.941</v>
       </c>
       <c r="P12">
-        <v>143.85400000000001</v>
+        <v>123.92</v>
       </c>
       <c r="Q12">
-        <v>-86.495999999999995</v>
+        <v>-36.363999999999997</v>
       </c>
       <c r="R12">
-        <v>41455</v>
+        <v>37833</v>
       </c>
       <c r="S12">
-        <v>0</v>
+        <v>191</v>
       </c>
       <c r="T12">
-        <v>2211.54</v>
+        <v>120.286</v>
       </c>
       <c r="U12">
-        <v>936.46400000000006</v>
+        <v>24.844000000000001</v>
       </c>
       <c r="V12">
-        <v>97.695999999999998</v>
+        <v>-13.798</v>
       </c>
       <c r="W12">
         <v>0</v>
       </c>
       <c r="X12">
-        <v>6.9669999999999996</v>
+        <v>6.7000000000000004E-2</v>
       </c>
       <c r="Y12">
-        <v>6.8540000000000001</v>
+        <v>0</v>
       </c>
       <c r="Z12">
-        <v>-183.32</v>
+        <v>-21.481000000000002</v>
       </c>
       <c r="AA12">
-        <v>95.885000000000005</v>
+        <v>-21.584</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>41547</v>
+        <v>37925</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
       <c r="C13">
-        <v>93.784999999999997</v>
+        <v>-20.212</v>
       </c>
       <c r="D13">
-        <v>400.40499999999997</v>
+        <v>0.14699999999999999</v>
       </c>
       <c r="E13">
-        <v>404.95600000000002</v>
+        <v>0.112</v>
       </c>
       <c r="F13">
-        <v>367.40899999999999</v>
+        <v>0.14699999999999999</v>
       </c>
       <c r="G13">
-        <v>1915.502</v>
+        <v>240.66300000000001</v>
       </c>
       <c r="H13">
-        <v>3049.7950000000001</v>
+        <v>286.32100000000003</v>
       </c>
       <c r="I13">
-        <v>24.416</v>
+        <v>5.0949999999999998</v>
       </c>
       <c r="J13">
-        <v>77</v>
+        <v>120</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1685,78 +1799,78 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>395.45600000000002</v>
+        <v>15.624000000000001</v>
       </c>
       <c r="O13">
-        <v>695.029</v>
+        <v>142.24100000000001</v>
       </c>
       <c r="P13">
-        <v>137.251</v>
+        <v>123.92</v>
       </c>
       <c r="Q13">
-        <v>-26.053000000000001</v>
+        <v>-13.923999999999999</v>
       </c>
       <c r="R13">
-        <v>41547</v>
+        <v>37925</v>
       </c>
       <c r="S13">
         <v>0</v>
       </c>
       <c r="T13">
-        <v>2354.7660000000001</v>
+        <v>144.08000000000001</v>
       </c>
       <c r="U13">
-        <v>910.41099999999994</v>
+        <v>10.92</v>
       </c>
       <c r="V13">
-        <v>144.27500000000001</v>
+        <v>-21.268999999999998</v>
       </c>
       <c r="W13">
         <v>0</v>
       </c>
       <c r="X13">
-        <v>44.463999999999999</v>
+        <v>44.277999999999999</v>
       </c>
       <c r="Y13">
-        <v>12.250999999999999</v>
+        <v>0</v>
       </c>
       <c r="Z13">
-        <v>-209.71700000000001</v>
+        <v>-36.131999999999998</v>
       </c>
       <c r="AA13">
-        <v>93.784999999999997</v>
+        <v>-20.212</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>41639</v>
+        <v>38017</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
       <c r="C14">
-        <v>-18.992000000000001</v>
+        <v>-18.547000000000001</v>
       </c>
       <c r="D14">
-        <v>441.90899999999999</v>
+        <v>0.14699999999999999</v>
       </c>
       <c r="E14">
-        <v>421.75200000000001</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="F14">
-        <v>390.35700000000003</v>
+        <v>0.14699999999999999</v>
       </c>
       <c r="G14">
-        <v>2186.857</v>
+        <v>227.19399999999999</v>
       </c>
       <c r="H14">
-        <v>3317.6959999999999</v>
+        <v>272.11900000000003</v>
       </c>
       <c r="I14">
-        <v>21.596</v>
+        <v>7.9850000000000003</v>
       </c>
       <c r="J14">
-        <v>65</v>
+        <v>120</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1768,78 +1882,78 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>582.42899999999997</v>
+        <v>18.350000000000001</v>
       </c>
       <c r="O14">
-        <v>935.61699999999996</v>
+        <v>146.11600000000001</v>
       </c>
       <c r="P14">
-        <v>145.22999999999999</v>
+        <v>123.92</v>
       </c>
       <c r="Q14">
-        <v>-380.55399999999997</v>
+        <v>-0.38800000000000001</v>
       </c>
       <c r="R14">
-        <v>41639</v>
+        <v>38017</v>
       </c>
       <c r="S14">
-        <v>1774</v>
+        <v>0</v>
       </c>
       <c r="T14">
-        <v>2382.0790000000002</v>
+        <v>126.003</v>
       </c>
       <c r="U14">
-        <v>529.85699999999997</v>
+        <v>10.532</v>
       </c>
       <c r="V14">
-        <v>208.881</v>
+        <v>-14.391</v>
       </c>
       <c r="W14">
         <v>0</v>
       </c>
       <c r="X14">
-        <v>24.515999999999998</v>
+        <v>0.58599999999999997</v>
       </c>
       <c r="Y14">
-        <v>32.229999999999997</v>
+        <v>0</v>
       </c>
       <c r="Z14">
-        <v>-595.46</v>
+        <v>13.561999999999999</v>
       </c>
       <c r="AA14">
-        <v>-18.992000000000001</v>
+        <v>-18.547000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>41729</v>
+        <v>38107</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
       </c>
       <c r="C15">
-        <v>159.35400000000001</v>
+        <v>-15.212999999999999</v>
       </c>
       <c r="D15">
-        <v>566.61599999999999</v>
+        <v>0.16800000000000001</v>
       </c>
       <c r="E15">
-        <v>429.02100000000002</v>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="F15">
-        <v>533.67700000000002</v>
+        <v>0.16800000000000001</v>
       </c>
       <c r="G15">
-        <v>2245.88</v>
+        <v>208.80199999999999</v>
       </c>
       <c r="H15">
-        <v>3379.6660000000002</v>
+        <v>253.26499999999999</v>
       </c>
       <c r="I15">
-        <v>35.338999999999999</v>
+        <v>4.476</v>
       </c>
       <c r="J15">
-        <v>45.5</v>
+        <v>120</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1848,84 +1962,84 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>-19.5</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>396.822</v>
+        <v>13.83</v>
       </c>
       <c r="O15">
-        <v>678.68799999999999</v>
+        <v>141.40299999999999</v>
       </c>
       <c r="P15">
-        <v>131.917</v>
+        <v>123.92</v>
       </c>
       <c r="Q15">
-        <v>-1.5720000000000001</v>
+        <v>64.028000000000006</v>
       </c>
       <c r="R15">
-        <v>41729</v>
+        <v>38107</v>
       </c>
       <c r="S15">
         <v>0</v>
       </c>
       <c r="T15">
-        <v>2700.9780000000001</v>
+        <v>111.86199999999999</v>
       </c>
       <c r="U15">
-        <v>528.28499999999997</v>
+        <v>74.56</v>
       </c>
       <c r="V15">
-        <v>-31.055</v>
+        <v>-19.713999999999999</v>
       </c>
       <c r="W15">
         <v>0</v>
       </c>
       <c r="X15">
-        <v>119.212</v>
+        <v>1.3220000000000001</v>
       </c>
       <c r="Y15">
-        <v>38.417000000000002</v>
+        <v>0</v>
       </c>
       <c r="Z15">
-        <v>-72.534000000000006</v>
+        <v>82.77</v>
       </c>
       <c r="AA15">
-        <v>159.35400000000001</v>
+        <v>-15.212999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>41820</v>
+        <v>38199</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
       </c>
       <c r="C16">
-        <v>166.495</v>
+        <v>-20.123000000000001</v>
       </c>
       <c r="D16">
-        <v>512.495</v>
+        <v>4.1470000000000002</v>
       </c>
       <c r="E16">
-        <v>440.69900000000001</v>
+        <v>4.8259999999999996</v>
       </c>
       <c r="F16">
-        <v>472.86900000000003</v>
+        <v>4.1470000000000002</v>
       </c>
       <c r="G16">
-        <v>2341.306</v>
+        <v>276.33300000000003</v>
       </c>
       <c r="H16">
-        <v>3553.81</v>
+        <v>319.57499999999999</v>
       </c>
       <c r="I16">
-        <v>36.066000000000003</v>
+        <v>3.9729999999999999</v>
       </c>
       <c r="J16">
-        <v>33.5</v>
+        <v>120</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>3.92</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1934,78 +2048,78 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>417.70100000000002</v>
+        <v>19.672999999999998</v>
       </c>
       <c r="O16">
-        <v>672.22799999999995</v>
+        <v>147.053</v>
       </c>
       <c r="P16">
-        <v>141.01499999999999</v>
+        <v>123.92</v>
       </c>
       <c r="Q16">
-        <v>83.76</v>
+        <v>38.664000000000001</v>
       </c>
       <c r="R16">
-        <v>41820</v>
+        <v>38199</v>
       </c>
       <c r="S16">
-        <v>0</v>
+        <v>204</v>
       </c>
       <c r="T16">
-        <v>2881.5819999999999</v>
+        <v>172.52199999999999</v>
       </c>
       <c r="U16">
-        <v>612.04499999999996</v>
+        <v>113.224</v>
       </c>
       <c r="V16">
-        <v>106.15</v>
+        <v>-16.619</v>
       </c>
       <c r="W16">
         <v>0</v>
       </c>
       <c r="X16">
-        <v>-22.58</v>
+        <v>81.037000000000006</v>
       </c>
       <c r="Y16">
-        <v>59.515000000000001</v>
+        <v>0</v>
       </c>
       <c r="Z16">
-        <v>43.581000000000003</v>
+        <v>-23.91</v>
       </c>
       <c r="AA16">
-        <v>166.495</v>
+        <v>-20.123000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>41912</v>
+        <v>38291</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
       </c>
       <c r="C17">
-        <v>177.73099999999999</v>
+        <v>-19.187999999999999</v>
       </c>
       <c r="D17">
-        <v>555.14599999999996</v>
+        <v>0.14699999999999999</v>
       </c>
       <c r="E17">
-        <v>436.46699999999998</v>
+        <v>0.70899999999999996</v>
       </c>
       <c r="F17">
-        <v>503.28800000000001</v>
+        <v>0.14699999999999999</v>
       </c>
       <c r="G17">
-        <v>2559.8780000000002</v>
+        <v>251.80699999999999</v>
       </c>
       <c r="H17">
-        <v>3890.8870000000002</v>
+        <v>297.41199999999998</v>
       </c>
       <c r="I17">
-        <v>23.175000000000001</v>
+        <v>6.1130000000000004</v>
       </c>
       <c r="J17">
-        <v>21.5</v>
+        <v>120</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -2017,78 +2131,78 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>502.53699999999998</v>
+        <v>16.266999999999999</v>
       </c>
       <c r="O17">
-        <v>767.84799999999996</v>
+        <v>143.452</v>
       </c>
       <c r="P17">
-        <v>156.53</v>
+        <v>120</v>
       </c>
       <c r="Q17">
-        <v>140.119</v>
+        <v>-65.739999999999995</v>
       </c>
       <c r="R17">
-        <v>41912</v>
+        <v>38291</v>
       </c>
       <c r="S17">
         <v>0</v>
       </c>
       <c r="T17">
-        <v>3123.0390000000002</v>
+        <v>153.96</v>
       </c>
       <c r="U17">
-        <v>752.16399999999999</v>
+        <v>47.484000000000002</v>
       </c>
       <c r="V17">
-        <v>281.52100000000002</v>
+        <v>-19.913</v>
       </c>
       <c r="W17">
         <v>0</v>
       </c>
       <c r="X17">
-        <v>-59.393999999999998</v>
+        <v>0.56299999999999994</v>
       </c>
       <c r="Y17">
-        <v>87.03</v>
+        <v>0</v>
       </c>
       <c r="Z17">
-        <v>-52.151000000000003</v>
+        <v>-45.975000000000001</v>
       </c>
       <c r="AA17">
-        <v>177.73099999999999</v>
+        <v>-19.187999999999999</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>42004</v>
+        <v>38383</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
       </c>
       <c r="C18">
-        <v>153.33199999999999</v>
+        <v>-24.47</v>
       </c>
       <c r="D18">
-        <v>599.476</v>
+        <v>0.56299999999999994</v>
       </c>
       <c r="E18">
-        <v>432.88799999999998</v>
+        <v>0.82299999999999995</v>
       </c>
       <c r="F18">
-        <v>550.03700000000003</v>
+        <v>0.56299999999999994</v>
       </c>
       <c r="G18">
-        <v>2796.029</v>
+        <v>375.53399999999999</v>
       </c>
       <c r="H18">
-        <v>4201.9620000000004</v>
+        <v>425.41199999999998</v>
       </c>
       <c r="I18">
-        <v>44.015999999999998</v>
+        <v>1.385</v>
       </c>
       <c r="J18">
-        <v>9.5</v>
+        <v>150</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -2100,75 +2214,75 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>606.74</v>
+        <v>138.11699999999999</v>
       </c>
       <c r="O18">
-        <v>899.94399999999996</v>
+        <v>295.10899999999998</v>
       </c>
       <c r="P18">
-        <v>164.59899999999999</v>
+        <v>270</v>
       </c>
       <c r="Q18">
-        <v>191.83500000000001</v>
+        <v>129.535</v>
       </c>
       <c r="R18">
-        <v>42004</v>
+        <v>38383</v>
       </c>
       <c r="S18">
-        <v>2273</v>
+        <v>0</v>
       </c>
       <c r="T18">
-        <v>3302.018</v>
+        <v>130.303</v>
       </c>
       <c r="U18">
-        <v>943.99900000000002</v>
+        <v>177.01900000000001</v>
       </c>
       <c r="V18">
-        <v>283.459</v>
+        <v>-21.298999999999999</v>
       </c>
       <c r="W18">
         <v>0</v>
       </c>
       <c r="X18">
-        <v>-30.111999999999998</v>
+        <v>146.36600000000001</v>
       </c>
       <c r="Y18">
-        <v>107.099</v>
+        <v>0</v>
       </c>
       <c r="Z18">
-        <v>-4.4219999999999997</v>
+        <v>5.056</v>
       </c>
       <c r="AA18">
-        <v>153.33199999999999</v>
+        <v>-24.47</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="B19" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C19">
-        <v>91.322999999999993</v>
+        <v>-26.581</v>
       </c>
       <c r="D19">
-        <v>600.33299999999997</v>
+        <v>0.56499999999999995</v>
       </c>
       <c r="E19">
-        <v>479.88299999999998</v>
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>530.93399999999997</v>
+        <v>0.56499999999999995</v>
       </c>
       <c r="G19">
-        <v>2852.9870000000001</v>
+        <v>0</v>
       </c>
       <c r="H19">
-        <v>4414.9250000000002</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>52.869</v>
+        <v>0</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -2180,81 +2294,81 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>-12</v>
+        <v>-120</v>
       </c>
       <c r="N19">
-        <v>580.43899999999996</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>898.02300000000002</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>160.41200000000001</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>-27.184999999999999</v>
+        <v>22.542000000000002</v>
       </c>
       <c r="R19">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="S19">
         <v>0</v>
       </c>
       <c r="T19">
-        <v>3516.902</v>
+        <v>0</v>
       </c>
       <c r="U19">
-        <v>916.81399999999996</v>
+        <v>0</v>
       </c>
       <c r="V19">
-        <v>23.033999999999999</v>
+        <v>-25.550999999999998</v>
       </c>
       <c r="W19">
         <v>0</v>
       </c>
       <c r="X19">
-        <v>5.0739999999999998</v>
+        <v>25.712</v>
       </c>
       <c r="Y19">
-        <v>114.91200000000001</v>
+        <v>0</v>
       </c>
       <c r="Z19">
-        <v>7.7009999999999996</v>
+        <v>23.530999999999999</v>
       </c>
       <c r="AA19">
-        <v>91.322999999999993</v>
+        <v>-26.581</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="B20" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C20">
-        <v>170.215</v>
+        <v>-35.11</v>
       </c>
       <c r="D20">
-        <v>636.21</v>
+        <v>0.16700000000000001</v>
       </c>
       <c r="E20">
-        <v>535.82399999999996</v>
+        <v>0</v>
       </c>
       <c r="F20">
-        <v>584.20299999999997</v>
+        <v>0.16700000000000001</v>
       </c>
       <c r="G20">
-        <v>2533.2379999999998</v>
+        <v>0</v>
       </c>
       <c r="H20">
-        <v>13167.718999999999</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>47.039000000000001</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>3368.75</v>
+        <v>0</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -2266,78 +2380,78 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>769.16899999999998</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>4614.848</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>3629.56</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>405.30900000000003</v>
+        <v>-8.359</v>
       </c>
       <c r="R20">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="S20">
         <v>0</v>
       </c>
       <c r="T20">
-        <v>8552.8709999999992</v>
+        <v>0</v>
       </c>
       <c r="U20">
-        <v>1322.123</v>
+        <v>0</v>
       </c>
       <c r="V20">
-        <v>238.22200000000001</v>
+        <v>-28.651</v>
       </c>
       <c r="W20">
         <v>0</v>
       </c>
       <c r="X20">
-        <v>3346.3409999999999</v>
+        <v>1.0409999999999999</v>
       </c>
       <c r="Y20">
-        <v>129.56</v>
+        <v>0</v>
       </c>
       <c r="Z20">
-        <v>831.93899999999996</v>
+        <v>20.337</v>
       </c>
       <c r="AA20">
-        <v>170.215</v>
+        <v>-35.11</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="B21" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C21">
-        <v>-183.75700000000001</v>
+        <v>-36.573999999999998</v>
       </c>
       <c r="D21">
-        <v>666.63699999999994</v>
+        <v>0.38400000000000001</v>
       </c>
       <c r="E21">
-        <v>512.25300000000004</v>
+        <v>0</v>
       </c>
       <c r="F21">
-        <v>612.58000000000004</v>
+        <v>0.38400000000000001</v>
       </c>
       <c r="G21">
-        <v>2480.2190000000001</v>
+        <v>0</v>
       </c>
       <c r="H21">
-        <v>13153.014999999999</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>46.973999999999997</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>3325</v>
+        <v>0</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -2349,78 +2463,78 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>766.86</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>4900.1459999999997</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>3649.6039999999998</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>-158.84200000000001</v>
+        <v>5.6859999999999999</v>
       </c>
       <c r="R21">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="S21">
         <v>0</v>
       </c>
       <c r="T21">
-        <v>8252.8690000000006</v>
+        <v>0</v>
       </c>
       <c r="U21">
-        <v>1163.2809999999999</v>
+        <v>0</v>
       </c>
       <c r="V21">
-        <v>223.08600000000001</v>
+        <v>-28.899000000000001</v>
       </c>
       <c r="W21">
         <v>0</v>
       </c>
       <c r="X21">
-        <v>-185.02799999999999</v>
+        <v>66.353999999999999</v>
       </c>
       <c r="Y21">
-        <v>149.60400000000001</v>
+        <v>0</v>
       </c>
       <c r="Z21">
-        <v>-123.17100000000001</v>
+        <v>-31.617000000000001</v>
       </c>
       <c r="AA21">
-        <v>-183.75700000000001</v>
+        <v>-36.573999999999998</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="B22" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C22">
-        <v>66.218999999999994</v>
+        <v>-40.8294</v>
       </c>
       <c r="D22">
-        <v>700.82</v>
+        <v>0.47760000000000002</v>
       </c>
       <c r="E22">
-        <v>533</v>
+        <v>0.41099999999999998</v>
       </c>
       <c r="F22">
-        <v>643.28300000000002</v>
+        <v>0.47760000000000002</v>
       </c>
       <c r="G22">
-        <v>2416</v>
+        <v>217.55099999999999</v>
       </c>
       <c r="H22">
-        <v>13097</v>
+        <v>262.71100000000001</v>
       </c>
       <c r="I22">
-        <v>57</v>
+        <v>3.8650000000000002</v>
       </c>
       <c r="J22">
-        <v>3254</v>
+        <v>150</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -2432,78 +2546,78 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>709</v>
+        <v>25.39</v>
       </c>
       <c r="O22">
-        <v>4838</v>
+        <v>180.821</v>
       </c>
       <c r="P22">
-        <v>3571</v>
+        <v>150.21700000000001</v>
       </c>
       <c r="Q22">
-        <v>-153.28200000000001</v>
+        <v>-27.841799999999999</v>
       </c>
       <c r="R22">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="S22">
-        <v>2924</v>
+        <v>241</v>
       </c>
       <c r="T22">
-        <v>8259</v>
+        <v>81.89</v>
       </c>
       <c r="U22">
-        <v>1010</v>
+        <v>43.628999999999998</v>
       </c>
       <c r="V22">
-        <v>190.65799999999999</v>
+        <v>-37.638199999999998</v>
       </c>
       <c r="W22">
         <v>0</v>
       </c>
       <c r="X22">
-        <v>-181.387</v>
+        <v>69.020200000000003</v>
       </c>
       <c r="Y22">
-        <v>151</v>
+        <v>8.7999999999999995E-2</v>
       </c>
       <c r="Z22">
-        <v>-81.468999999999994</v>
+        <v>-60.527000000000001</v>
       </c>
       <c r="AA22">
-        <v>66.218999999999994</v>
+        <v>-40.8294</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="B23" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C23">
-        <v>92</v>
+        <v>-27.227</v>
       </c>
       <c r="D23">
-        <v>701</v>
+        <v>0.76800000000000002</v>
       </c>
       <c r="E23">
-        <v>586.24900000000002</v>
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>642</v>
+        <v>0.76800000000000002</v>
       </c>
       <c r="G23">
-        <v>2127.509</v>
+        <v>193.19900000000001</v>
       </c>
       <c r="H23">
-        <v>12802.445</v>
+        <v>237.92400000000001</v>
       </c>
       <c r="I23">
-        <v>42.896999999999998</v>
+        <v>1.319</v>
       </c>
       <c r="J23">
-        <v>3212.7719999999999</v>
+        <v>150</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -2512,81 +2626,81 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>-175</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>603.61300000000006</v>
+        <v>19.457000000000001</v>
       </c>
       <c r="O23">
-        <v>4740.1679999999997</v>
+        <v>174.709</v>
       </c>
       <c r="P23">
-        <v>3421.1</v>
+        <v>150.18600000000001</v>
       </c>
       <c r="Q23">
-        <v>-300</v>
+        <v>-31.681999999999999</v>
       </c>
       <c r="R23">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="S23">
         <v>0</v>
       </c>
       <c r="T23">
-        <v>8062.277</v>
+        <v>63.215000000000003</v>
       </c>
       <c r="U23">
-        <v>710.19799999999998</v>
+        <v>11.946999999999999</v>
       </c>
       <c r="V23">
-        <v>174</v>
+        <v>-28.094999999999999</v>
       </c>
       <c r="W23">
         <v>0</v>
       </c>
       <c r="X23">
-        <v>-472</v>
+        <v>5.4050000000000002</v>
       </c>
       <c r="Y23">
-        <v>172.97</v>
+        <v>5.6000000000000001E-2</v>
       </c>
       <c r="Z23">
-        <v>58</v>
+        <v>-8.4879999999999995</v>
       </c>
       <c r="AA23">
-        <v>92</v>
+        <v>-27.227</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="B24" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C24">
-        <v>120</v>
+        <v>-33.164999999999999</v>
       </c>
       <c r="D24">
-        <v>753</v>
+        <v>0.33900000000000002</v>
       </c>
       <c r="E24">
-        <v>609.29700000000003</v>
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>693</v>
+        <v>0.33900000000000002</v>
       </c>
       <c r="G24">
-        <v>2361.2089999999998</v>
+        <v>168.572</v>
       </c>
       <c r="H24">
-        <v>13029.347</v>
+        <v>214.58099999999999</v>
       </c>
       <c r="I24">
-        <v>28.978000000000002</v>
+        <v>0.50800000000000001</v>
       </c>
       <c r="J24">
-        <v>3175.9050000000002</v>
+        <v>150</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -2598,78 +2712,78 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>658.46199999999999</v>
+        <v>25.170999999999999</v>
       </c>
       <c r="O24">
-        <v>4830.0079999999998</v>
+        <v>180.245</v>
       </c>
       <c r="P24">
-        <v>3452.49</v>
+        <v>150.15299999999999</v>
       </c>
       <c r="Q24">
-        <v>-112</v>
+        <v>40.695</v>
       </c>
       <c r="R24">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="S24">
         <v>0</v>
       </c>
       <c r="T24">
-        <v>8199.3389999999999</v>
+        <v>34.335999999999999</v>
       </c>
       <c r="U24">
-        <v>597.54999999999995</v>
+        <v>52.642000000000003</v>
       </c>
       <c r="V24">
-        <v>239</v>
+        <v>-22.661000000000001</v>
       </c>
       <c r="W24">
         <v>0</v>
       </c>
       <c r="X24">
-        <v>-19</v>
+        <v>0.64700000000000002</v>
       </c>
       <c r="Y24">
-        <v>196.43899999999999</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="Z24">
-        <v>-263</v>
+        <v>65.91</v>
       </c>
       <c r="AA24">
-        <v>120</v>
+        <v>-33.164999999999999</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="B25" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C25">
-        <v>94</v>
+        <v>-31.872</v>
       </c>
       <c r="D25">
-        <v>799</v>
+        <v>0.26300000000000001</v>
       </c>
       <c r="E25">
-        <v>676.83699999999999</v>
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>728</v>
+        <v>0.26300000000000001</v>
       </c>
       <c r="G25">
-        <v>2594.5340000000001</v>
+        <v>147.49799999999999</v>
       </c>
       <c r="H25">
-        <v>13293.462</v>
+        <v>211.001</v>
       </c>
       <c r="I25">
-        <v>44.848999999999997</v>
+        <v>3.4790000000000001</v>
       </c>
       <c r="J25">
-        <v>2930.181</v>
+        <v>176</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -2681,78 +2795,78 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1034.3409999999999</v>
+        <v>21.503</v>
       </c>
       <c r="O25">
-        <v>4789.3590000000004</v>
+        <v>202.405</v>
       </c>
       <c r="P25">
-        <v>3478.511</v>
+        <v>176.12100000000001</v>
       </c>
       <c r="Q25">
-        <v>164</v>
+        <v>-12.661</v>
       </c>
       <c r="R25">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="S25">
         <v>0</v>
       </c>
       <c r="T25">
-        <v>8504.1029999999992</v>
+        <v>8.5960000000000001</v>
       </c>
       <c r="U25">
-        <v>761.98900000000003</v>
+        <v>39.981000000000002</v>
       </c>
       <c r="V25">
-        <v>290</v>
+        <v>-31.18</v>
       </c>
       <c r="W25">
         <v>0</v>
       </c>
       <c r="X25">
-        <v>-61</v>
+        <v>27.344000000000001</v>
       </c>
       <c r="Y25">
-        <v>224.44200000000001</v>
+        <v>0</v>
       </c>
       <c r="Z25">
-        <v>28</v>
+        <v>40.957000000000001</v>
       </c>
       <c r="AA25">
-        <v>94</v>
+        <v>-31.872</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="B26" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C26">
-        <v>93.4</v>
+        <v>-39.25</v>
       </c>
       <c r="D26">
-        <v>831.1</v>
+        <v>0.188</v>
       </c>
       <c r="E26">
-        <v>649.6</v>
+        <v>0</v>
       </c>
       <c r="F26">
-        <v>762.8</v>
+        <v>0.188</v>
       </c>
       <c r="G26">
-        <v>2578.1999999999998</v>
+        <v>236.77600000000001</v>
       </c>
       <c r="H26">
-        <v>13253.3</v>
+        <v>333.53699999999998</v>
       </c>
       <c r="I26">
-        <v>64.099999999999994</v>
+        <v>10.939</v>
       </c>
       <c r="J26">
-        <v>2888.1</v>
+        <v>176</v>
       </c>
       <c r="K26">
         <v>0</v>
@@ -2764,78 +2878,78 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>822.9</v>
+        <v>27.821999999999999</v>
       </c>
       <c r="O26">
-        <v>4559.5</v>
+        <v>208.86</v>
       </c>
       <c r="P26">
-        <v>3289</v>
+        <v>176.35</v>
       </c>
       <c r="Q26">
-        <v>203.9</v>
+        <v>126.845</v>
       </c>
       <c r="R26">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="S26">
-        <v>3121</v>
+        <v>296</v>
       </c>
       <c r="T26">
-        <v>8693.7999999999993</v>
+        <v>124.67700000000001</v>
       </c>
       <c r="U26">
-        <v>966</v>
+        <v>166.82599999999999</v>
       </c>
       <c r="V26">
-        <v>383.3</v>
+        <v>-27.978000000000002</v>
       </c>
       <c r="W26">
         <v>0</v>
       </c>
       <c r="X26">
-        <v>-284.2</v>
+        <v>145.928</v>
       </c>
       <c r="Y26">
-        <v>233.4</v>
+        <v>0.28299999999999997</v>
       </c>
       <c r="Z26">
-        <v>223.2</v>
+        <v>20.978000000000002</v>
       </c>
       <c r="AA26">
-        <v>93.4</v>
+        <v>-39.25</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="B27" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C27">
-        <v>170.1</v>
+        <v>-32.692999999999998</v>
       </c>
       <c r="D27">
-        <v>869.6</v>
+        <v>6.3170000000000002</v>
       </c>
       <c r="E27">
-        <v>660</v>
+        <v>1.173</v>
       </c>
       <c r="F27">
-        <v>800.6</v>
+        <v>6.2320000000000002</v>
       </c>
       <c r="G27">
-        <v>2733</v>
+        <v>206.97499999999999</v>
       </c>
       <c r="H27">
-        <v>13435</v>
+        <v>307.73700000000002</v>
       </c>
       <c r="I27">
-        <v>61</v>
+        <v>8.7609999999999992</v>
       </c>
       <c r="J27">
-        <v>2846</v>
+        <v>176</v>
       </c>
       <c r="K27">
         <v>0</v>
@@ -2844,81 +2958,81 @@
         <v>0</v>
       </c>
       <c r="M27">
-        <v>-43.8</v>
+        <v>-1.7999999999999999E-2</v>
       </c>
       <c r="N27">
-        <v>837</v>
+        <v>22.533999999999999</v>
       </c>
       <c r="O27">
-        <v>4579</v>
+        <v>198.798</v>
       </c>
       <c r="P27">
-        <v>3283</v>
+        <v>176.33199999999999</v>
       </c>
       <c r="Q27">
-        <v>-252.9</v>
+        <v>-29.834</v>
       </c>
       <c r="R27">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="S27">
         <v>0</v>
       </c>
       <c r="T27">
-        <v>8856</v>
+        <v>108.93899999999999</v>
       </c>
       <c r="U27">
-        <v>713</v>
+        <v>136.99199999999999</v>
       </c>
       <c r="V27">
-        <v>307.89999999999998</v>
+        <v>-39.36</v>
       </c>
       <c r="W27">
         <v>0</v>
       </c>
       <c r="X27">
-        <v>-68.7</v>
+        <v>11.394</v>
       </c>
       <c r="Y27">
-        <v>270</v>
+        <v>0.26400000000000001</v>
       </c>
       <c r="Z27">
-        <v>-418.5</v>
+        <v>3.0569999999999999</v>
       </c>
       <c r="AA27">
-        <v>170.1</v>
+        <v>-32.692999999999998</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="B28" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C28">
-        <v>165.2</v>
+        <v>-27.184000000000001</v>
       </c>
       <c r="D28">
-        <v>912.7</v>
+        <v>9.7560000000000002</v>
       </c>
       <c r="E28">
-        <v>710</v>
+        <v>10.265000000000001</v>
       </c>
       <c r="F28">
-        <v>829.1</v>
+        <v>8.6890000000000001</v>
       </c>
       <c r="G28">
-        <v>2789</v>
+        <v>186.86</v>
       </c>
       <c r="H28">
-        <v>13489</v>
+        <v>296.89</v>
       </c>
       <c r="I28">
-        <v>51</v>
+        <v>8.0410000000000004</v>
       </c>
       <c r="J28">
-        <v>2806</v>
+        <v>176</v>
       </c>
       <c r="K28">
         <v>0</v>
@@ -2930,78 +3044,78 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <v>856</v>
+        <v>23.940999999999999</v>
       </c>
       <c r="O28">
-        <v>4614</v>
+        <v>200.57900000000001</v>
       </c>
       <c r="P28">
-        <v>3251</v>
+        <v>176.9</v>
       </c>
       <c r="Q28">
-        <v>-171.3</v>
+        <v>-24.228000000000002</v>
       </c>
       <c r="R28">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="S28">
         <v>0</v>
       </c>
       <c r="T28">
-        <v>8875</v>
+        <v>96.311000000000007</v>
       </c>
       <c r="U28">
-        <v>542</v>
+        <v>112.764</v>
       </c>
       <c r="V28">
-        <v>280.10000000000002</v>
+        <v>-40.722000000000001</v>
       </c>
       <c r="W28">
         <v>0</v>
       </c>
       <c r="X28">
-        <v>-207</v>
+        <v>9.8230000000000004</v>
       </c>
       <c r="Y28">
-        <v>277</v>
+        <v>0.63800000000000001</v>
       </c>
       <c r="Z28">
-        <v>-152.19999999999999</v>
+        <v>16.526</v>
       </c>
       <c r="AA28">
-        <v>165.2</v>
+        <v>-27.184000000000001</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="B29" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C29">
-        <v>78</v>
+        <v>-20.081</v>
       </c>
       <c r="D29">
-        <v>859.1</v>
+        <v>22.11</v>
       </c>
       <c r="E29">
-        <v>705</v>
+        <v>31.625</v>
       </c>
       <c r="F29">
-        <v>785.1</v>
+        <v>19.956</v>
       </c>
       <c r="G29">
-        <v>2882</v>
+        <v>190.702</v>
       </c>
       <c r="H29">
-        <v>13643</v>
+        <v>321.10500000000002</v>
       </c>
       <c r="I29">
-        <v>35</v>
+        <v>10.547000000000001</v>
       </c>
       <c r="J29">
-        <v>2764</v>
+        <v>194</v>
       </c>
       <c r="K29">
         <v>0</v>
@@ -3013,78 +3127,78 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>972</v>
+        <v>33.286000000000001</v>
       </c>
       <c r="O29">
-        <v>4699</v>
+        <v>228.48</v>
       </c>
       <c r="P29">
-        <v>3265</v>
+        <v>194.83699999999999</v>
       </c>
       <c r="Q29">
-        <v>8.3000000000000007</v>
+        <v>-21.263999999999999</v>
       </c>
       <c r="R29">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="S29">
         <v>0</v>
       </c>
       <c r="T29">
-        <v>8944</v>
+        <v>92.625</v>
       </c>
       <c r="U29">
-        <v>550</v>
+        <v>91.5</v>
       </c>
       <c r="V29">
-        <v>269.5</v>
+        <v>-38.119</v>
       </c>
       <c r="W29">
         <v>0</v>
       </c>
       <c r="X29">
-        <v>-95.5</v>
+        <v>28.385999999999999</v>
       </c>
       <c r="Y29">
-        <v>333</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="Z29">
-        <v>-77</v>
+        <v>9.7390000000000008</v>
       </c>
       <c r="AA29">
-        <v>78</v>
+        <v>-20.085000000000001</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="B30" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C30">
-        <v>30</v>
+        <v>-12.332000000000001</v>
       </c>
       <c r="D30">
-        <v>909.7</v>
+        <v>33.856999999999999</v>
       </c>
       <c r="E30">
-        <v>726.5</v>
+        <v>46.277999999999999</v>
       </c>
       <c r="F30">
-        <v>834.2</v>
+        <v>30.466000000000001</v>
       </c>
       <c r="G30">
-        <v>2953.9</v>
+        <v>204.417</v>
       </c>
       <c r="H30">
-        <v>13583.3</v>
+        <v>334.35700000000003</v>
       </c>
       <c r="I30">
-        <v>70.8</v>
+        <v>9.0719999999999992</v>
       </c>
       <c r="J30">
-        <v>2720.7</v>
+        <v>194</v>
       </c>
       <c r="K30">
         <v>0</v>
@@ -3096,164 +3210,164 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>952.5</v>
+        <v>37.709000000000003</v>
       </c>
       <c r="O30">
-        <v>4690.2</v>
+        <v>232.80099999999999</v>
       </c>
       <c r="P30">
-        <v>3241.4</v>
+        <v>194.77099999999999</v>
       </c>
       <c r="Q30">
-        <v>34.299999999999997</v>
+        <v>3.8210000000000002</v>
       </c>
       <c r="R30">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="S30">
-        <v>2525</v>
+        <v>434</v>
       </c>
       <c r="T30">
-        <v>8893.1</v>
+        <v>101.556</v>
       </c>
       <c r="U30">
-        <v>584.4</v>
+        <v>95.320999999999998</v>
       </c>
       <c r="V30">
-        <v>258.10000000000002</v>
+        <v>-21.413</v>
       </c>
       <c r="W30">
         <v>0</v>
       </c>
       <c r="X30">
-        <v>-225.4</v>
+        <v>15.241</v>
       </c>
       <c r="Y30">
-        <v>342.9</v>
+        <v>0.499</v>
       </c>
       <c r="Z30">
-        <v>88.8</v>
+        <v>9.9440000000000008</v>
       </c>
       <c r="AA30">
-        <v>30</v>
+        <v>-12.332000000000001</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="B31" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C31">
-        <v>249.1</v>
+        <v>-4.2489999999999997</v>
       </c>
       <c r="D31">
-        <v>930.9</v>
+        <v>45.640999999999998</v>
       </c>
       <c r="E31">
-        <v>776.7</v>
+        <v>53.701999999999998</v>
       </c>
       <c r="F31">
-        <v>844.6</v>
+        <v>40.177</v>
       </c>
       <c r="G31">
-        <v>3152</v>
+        <v>218.125</v>
       </c>
       <c r="H31">
-        <v>13830.2</v>
+        <v>363.99400000000003</v>
       </c>
       <c r="I31">
-        <v>57.1</v>
+        <v>6.08</v>
       </c>
       <c r="J31">
-        <v>2678.8</v>
+        <v>196.5</v>
       </c>
       <c r="K31">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="L31">
         <v>0</v>
       </c>
       <c r="M31">
-        <v>-43.8</v>
+        <v>-6.4000000000000001E-2</v>
       </c>
       <c r="N31">
-        <v>942</v>
+        <v>58.435000000000002</v>
       </c>
       <c r="O31">
-        <v>4717.5</v>
+        <v>255.95500000000001</v>
       </c>
       <c r="P31">
-        <v>3196.5</v>
+        <v>219.70699999999999</v>
       </c>
       <c r="Q31">
-        <v>-72.599999999999994</v>
+        <v>9.5329999999999995</v>
       </c>
       <c r="R31">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="S31">
         <v>0</v>
       </c>
       <c r="T31">
-        <v>9112.7000000000007</v>
+        <v>108.039</v>
       </c>
       <c r="U31">
-        <v>511.8</v>
+        <v>104.854</v>
       </c>
       <c r="V31">
-        <v>299.3</v>
+        <v>-11.253</v>
       </c>
       <c r="W31">
         <v>0</v>
       </c>
       <c r="X31">
-        <v>-123.5</v>
+        <v>22.422000000000001</v>
       </c>
       <c r="Y31">
-        <v>350.2</v>
+        <v>0.42699999999999999</v>
       </c>
       <c r="Z31">
-        <v>-187.8</v>
+        <v>8.74</v>
       </c>
       <c r="AA31">
-        <v>249.1</v>
+        <v>-4.2489999999999997</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="B32" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C32">
-        <v>-457.4</v>
+        <v>2.3740000000000001</v>
       </c>
       <c r="D32">
-        <v>1045</v>
+        <v>59.558999999999997</v>
       </c>
       <c r="E32">
-        <v>853.7</v>
+        <v>56.137999999999998</v>
       </c>
       <c r="F32">
-        <v>950.2</v>
+        <v>52.417000000000002</v>
       </c>
       <c r="G32">
-        <v>2836.1</v>
+        <v>228.13</v>
       </c>
       <c r="H32">
-        <v>13490.4</v>
+        <v>379.18900000000002</v>
       </c>
       <c r="I32">
-        <v>58.8</v>
+        <v>6.9889999999999999</v>
       </c>
       <c r="J32">
-        <v>2564.9</v>
+        <v>196.5</v>
       </c>
       <c r="K32">
-        <v>250</v>
+        <v>5</v>
       </c>
       <c r="L32">
         <v>0</v>
@@ -3262,81 +3376,81 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>1044.4000000000001</v>
+        <v>54.636000000000003</v>
       </c>
       <c r="O32">
-        <v>4723</v>
+        <v>252.39099999999999</v>
       </c>
       <c r="P32">
-        <v>3204.8</v>
+        <v>206.63900000000001</v>
       </c>
       <c r="Q32">
-        <v>219.1</v>
+        <v>1.2470000000000001</v>
       </c>
       <c r="R32">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="S32">
         <v>0</v>
       </c>
       <c r="T32">
-        <v>8767.4</v>
+        <v>126.798</v>
       </c>
       <c r="U32">
-        <v>727.5</v>
+        <v>106.101</v>
       </c>
       <c r="V32">
-        <v>-343.8</v>
+        <v>14.15</v>
       </c>
       <c r="W32">
         <v>0</v>
       </c>
       <c r="X32">
-        <v>7</v>
+        <v>-3.77</v>
       </c>
       <c r="Y32">
-        <v>361.4</v>
+        <v>0.35499999999999998</v>
       </c>
       <c r="Z32">
-        <v>629.79999999999995</v>
+        <v>-3.0000000000000001E-3</v>
       </c>
       <c r="AA32">
-        <v>-457.4</v>
+        <v>2.3740000000000001</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="B33" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C33">
-        <v>330.9</v>
+        <v>19.687999999999999</v>
       </c>
       <c r="D33">
-        <v>1026.5</v>
+        <v>76.5</v>
       </c>
       <c r="E33">
-        <v>910.2</v>
+        <v>70.715000000000003</v>
       </c>
       <c r="F33">
-        <v>935.9</v>
+        <v>67.552000000000007</v>
       </c>
       <c r="G33">
-        <v>3248.4</v>
+        <v>270.42</v>
       </c>
       <c r="H33">
-        <v>13843.6</v>
+        <v>430.34300000000002</v>
       </c>
       <c r="I33">
-        <v>52.2</v>
+        <v>9.89</v>
       </c>
       <c r="J33">
-        <v>2533.3000000000002</v>
+        <v>194</v>
       </c>
       <c r="K33">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="L33">
         <v>0</v>
@@ -3345,81 +3459,81 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>1027.4000000000001</v>
+        <v>61.387</v>
       </c>
       <c r="O33">
-        <v>4673.8999999999996</v>
+        <v>256.58300000000003</v>
       </c>
       <c r="P33">
-        <v>3205.7</v>
+        <v>201.57</v>
       </c>
       <c r="Q33">
-        <v>498.3</v>
+        <v>18.048999999999999</v>
       </c>
       <c r="R33">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="S33">
         <v>0</v>
       </c>
       <c r="T33">
-        <v>9169.7000000000007</v>
+        <v>173.76</v>
       </c>
       <c r="U33">
-        <v>1228.9000000000001</v>
+        <v>124.15</v>
       </c>
       <c r="V33">
-        <v>387.1</v>
+        <v>19.452000000000002</v>
       </c>
       <c r="W33">
         <v>0</v>
       </c>
       <c r="X33">
-        <v>11</v>
+        <v>8.8520000000000003</v>
       </c>
       <c r="Y33">
-        <v>361.2</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="Z33">
-        <v>143</v>
+        <v>-4.0000000000000001E-3</v>
       </c>
       <c r="AA33">
-        <v>330.9</v>
+        <v>19.689</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="B34" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C34">
-        <v>-45</v>
+        <v>15.336</v>
       </c>
       <c r="D34">
-        <v>1128.8</v>
+        <v>77.399000000000001</v>
       </c>
       <c r="E34">
-        <v>922.3</v>
+        <v>74.475999999999999</v>
       </c>
       <c r="F34">
-        <v>1032</v>
+        <v>70.587000000000003</v>
       </c>
       <c r="G34">
-        <v>3385</v>
+        <v>277.101</v>
       </c>
       <c r="H34">
-        <v>13931.9</v>
+        <v>477.55099999999999</v>
       </c>
       <c r="I34">
-        <v>74.400000000000006</v>
+        <v>8.6549999999999994</v>
       </c>
       <c r="J34">
-        <v>2519</v>
+        <v>141.22200000000001</v>
       </c>
       <c r="K34">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="L34">
         <v>0</v>
@@ -3428,161 +3542,161 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <v>1174</v>
+        <v>84.418000000000006</v>
       </c>
       <c r="O34">
-        <v>4766.6000000000004</v>
+        <v>230.55</v>
       </c>
       <c r="P34">
-        <v>3224.6</v>
+        <v>144.221</v>
       </c>
       <c r="Q34">
-        <v>138.1</v>
+        <v>13.862</v>
       </c>
       <c r="R34">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="S34">
-        <v>2656</v>
+        <v>504</v>
       </c>
       <c r="T34">
-        <v>9165.2999999999993</v>
+        <v>247.001</v>
       </c>
       <c r="U34">
-        <v>1365.5</v>
+        <v>138.012</v>
       </c>
       <c r="V34">
-        <v>83.4</v>
+        <v>30.85</v>
       </c>
       <c r="W34">
         <v>0</v>
       </c>
       <c r="X34">
-        <v>3.1</v>
+        <v>0.80400000000000005</v>
       </c>
       <c r="Y34">
-        <v>361</v>
+        <v>0.20300000000000001</v>
       </c>
       <c r="Z34">
-        <v>95.5</v>
+        <v>0.63500000000000001</v>
       </c>
       <c r="AA34">
-        <v>-45</v>
+        <v>15.336</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="B35" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C35">
-        <v>587.9</v>
+        <v>14.506</v>
       </c>
       <c r="D35">
-        <v>1140.4000000000001</v>
+        <v>81.266999999999996</v>
       </c>
       <c r="E35">
-        <v>1016.3</v>
+        <v>79.991</v>
       </c>
       <c r="F35">
-        <v>1054.5999999999999</v>
+        <v>71.308000000000007</v>
       </c>
       <c r="G35">
-        <v>3650.6</v>
+        <v>286.36599999999999</v>
       </c>
       <c r="H35">
-        <v>13999.6</v>
+        <v>491.642</v>
       </c>
       <c r="I35">
-        <v>659</v>
+        <v>7.8840000000000003</v>
       </c>
       <c r="J35">
-        <v>2501.1</v>
+        <v>141.22200000000001</v>
       </c>
       <c r="K35">
         <v>0</v>
       </c>
       <c r="L35">
-        <v>-250</v>
+        <v>0</v>
       </c>
       <c r="M35">
-        <v>0</v>
+        <v>-7.0999999999999994E-2</v>
       </c>
       <c r="N35">
-        <v>943.8</v>
+        <v>70.084000000000003</v>
       </c>
       <c r="O35">
-        <v>4293</v>
+        <v>216.93100000000001</v>
       </c>
       <c r="P35">
-        <v>2880.7</v>
+        <v>144.15</v>
       </c>
       <c r="Q35">
-        <v>179</v>
+        <v>1.0269999999999999</v>
       </c>
       <c r="R35">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="S35">
         <v>0</v>
       </c>
       <c r="T35">
-        <v>9706.6</v>
+        <v>274.71100000000001</v>
       </c>
       <c r="U35">
-        <v>1544.8</v>
+        <v>139.03899999999999</v>
       </c>
       <c r="V35">
-        <v>429.9</v>
+        <v>15.929</v>
       </c>
       <c r="W35">
         <v>0</v>
       </c>
       <c r="X35">
-        <v>-252.4</v>
+        <v>4.1280000000000001</v>
       </c>
       <c r="Y35">
-        <v>227.6</v>
+        <v>0.125</v>
       </c>
       <c r="Z35">
-        <v>48.8</v>
+        <v>0</v>
       </c>
       <c r="AA35">
-        <v>587.9</v>
+        <v>14.506</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="B36" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C36">
-        <v>459.8</v>
+        <v>16.802</v>
       </c>
       <c r="D36">
-        <v>1203.3</v>
+        <v>92.256</v>
       </c>
       <c r="E36">
-        <v>1123.5999999999999</v>
+        <v>94.953999999999994</v>
       </c>
       <c r="F36">
-        <v>1104.0999999999999</v>
+        <v>81.942999999999998</v>
       </c>
       <c r="G36">
-        <v>4168.5</v>
+        <v>300.23</v>
       </c>
       <c r="H36">
-        <v>14567.7</v>
+        <v>514.98500000000001</v>
       </c>
       <c r="I36">
-        <v>719.2</v>
+        <v>9.1649999999999991</v>
       </c>
       <c r="J36">
-        <v>2490.5</v>
+        <v>9.9179999999999993</v>
       </c>
       <c r="K36">
         <v>0</v>
@@ -3594,78 +3708,78 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <v>1031.5</v>
+        <v>112.19799999999999</v>
       </c>
       <c r="O36">
-        <v>4404.2</v>
+        <v>128.53800000000001</v>
       </c>
       <c r="P36">
-        <v>2894.2</v>
+        <v>54.271999999999998</v>
       </c>
       <c r="Q36">
-        <v>438.4</v>
+        <v>6.7640000000000002</v>
       </c>
       <c r="R36">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="S36">
         <v>0</v>
       </c>
       <c r="T36">
-        <v>10163.5</v>
+        <v>386.447</v>
       </c>
       <c r="U36">
-        <v>1984.2</v>
+        <v>145.803</v>
       </c>
       <c r="V36">
-        <v>538.4</v>
+        <v>26.713999999999999</v>
       </c>
       <c r="W36">
         <v>0</v>
       </c>
       <c r="X36">
-        <v>-61.1</v>
+        <v>6.5270000000000001</v>
       </c>
       <c r="Y36">
-        <v>241</v>
+        <v>4.3999999999999997E-2</v>
       </c>
       <c r="Z36">
-        <v>5.6</v>
+        <v>0</v>
       </c>
       <c r="AA36">
-        <v>459.8</v>
+        <v>16.802</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="B37" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C37">
-        <v>467.6</v>
+        <v>26.731000000000002</v>
       </c>
       <c r="D37">
-        <v>1263.0999999999999</v>
+        <v>102.628</v>
       </c>
       <c r="E37">
-        <v>1116.3</v>
+        <v>109.455</v>
       </c>
       <c r="F37">
-        <v>1167.9000000000001</v>
+        <v>90.733000000000004</v>
       </c>
       <c r="G37">
-        <v>4341.2</v>
+        <v>332.14400000000001</v>
       </c>
       <c r="H37">
-        <v>14815</v>
+        <v>552.00599999999997</v>
       </c>
       <c r="I37">
-        <v>860.8</v>
+        <v>15.117000000000001</v>
       </c>
       <c r="J37">
-        <v>2462.4</v>
+        <v>9.9179999999999993</v>
       </c>
       <c r="K37">
         <v>0</v>
@@ -3677,78 +3791,78 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>1091.2</v>
+        <v>107.94499999999999</v>
       </c>
       <c r="O37">
-        <v>4447.8</v>
+        <v>124.768</v>
       </c>
       <c r="P37">
-        <v>2868.9</v>
+        <v>30.908000000000001</v>
       </c>
       <c r="Q37">
-        <v>218.3</v>
+        <v>19.492000000000001</v>
       </c>
       <c r="R37">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="S37">
         <v>0</v>
       </c>
       <c r="T37">
-        <v>10367.200000000001</v>
+        <v>427.238</v>
       </c>
       <c r="U37">
-        <v>2171.3000000000002</v>
+        <v>165.29499999999999</v>
       </c>
       <c r="V37">
-        <v>599.5</v>
+        <v>38.755000000000003</v>
       </c>
       <c r="W37">
         <v>0</v>
       </c>
       <c r="X37">
-        <v>-365.9</v>
+        <v>-12.343</v>
       </c>
       <c r="Y37">
-        <v>241</v>
+        <v>0.496</v>
       </c>
       <c r="Z37">
-        <v>41.7</v>
+        <v>0</v>
       </c>
       <c r="AA37">
-        <v>467.6</v>
+        <v>26.731000000000002</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="B38" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C38">
-        <v>889</v>
+        <v>237.12700000000001</v>
       </c>
       <c r="D38">
-        <v>1384.3</v>
+        <v>110.649</v>
       </c>
       <c r="E38">
-        <v>1243.2</v>
+        <v>113.73099999999999</v>
       </c>
       <c r="F38">
-        <v>1270</v>
+        <v>97.757000000000005</v>
       </c>
       <c r="G38">
-        <v>5076.3999999999996</v>
+        <v>373.45600000000002</v>
       </c>
       <c r="H38">
-        <v>17544.599999999999</v>
+        <v>786.40099999999995</v>
       </c>
       <c r="I38">
-        <v>74</v>
+        <v>11.53</v>
       </c>
       <c r="J38">
-        <v>2416.9</v>
+        <v>9.9179999999999993</v>
       </c>
       <c r="K38">
         <v>0</v>
@@ -3760,78 +3874,78 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <v>1194.3</v>
+        <v>85.262</v>
       </c>
       <c r="O38">
-        <v>6272.8</v>
+        <v>98.045000000000002</v>
       </c>
       <c r="P38">
-        <v>2824.1</v>
+        <v>10.843</v>
       </c>
       <c r="Q38">
-        <v>520.6</v>
+        <v>-8.1229999999999993</v>
       </c>
       <c r="R38">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="S38">
-        <v>3082</v>
+        <v>673</v>
       </c>
       <c r="T38">
-        <v>11271.8</v>
+        <v>688.35599999999999</v>
       </c>
       <c r="U38">
-        <v>2685.5</v>
+        <v>157.172</v>
       </c>
       <c r="V38">
-        <v>517.1</v>
+        <v>32.442999999999998</v>
       </c>
       <c r="W38">
         <v>0</v>
       </c>
       <c r="X38">
-        <v>-59.7</v>
+        <v>-12.582000000000001</v>
       </c>
       <c r="Y38">
-        <v>237</v>
+        <v>0.503</v>
       </c>
       <c r="Z38">
-        <v>87.3</v>
+        <v>-19.026</v>
       </c>
       <c r="AA38">
-        <v>889</v>
+        <v>237.12700000000001</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="B39" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C39">
-        <v>557.6</v>
+        <v>20.934000000000001</v>
       </c>
       <c r="D39">
-        <v>1444.8</v>
+        <v>117.578</v>
       </c>
       <c r="E39">
-        <v>1345.2</v>
+        <v>126.66</v>
       </c>
       <c r="F39">
-        <v>1333.1</v>
+        <v>103.57899999999999</v>
       </c>
       <c r="G39">
-        <v>4870.2</v>
+        <v>430.08100000000002</v>
       </c>
       <c r="H39">
-        <v>18148.5</v>
+        <v>835.76300000000003</v>
       </c>
       <c r="I39">
-        <v>862.8</v>
+        <v>9.4740000000000002</v>
       </c>
       <c r="J39">
-        <v>2419.1</v>
+        <v>8.9179999999999993</v>
       </c>
       <c r="K39">
         <v>0</v>
@@ -3840,81 +3954,81 @@
         <v>0</v>
       </c>
       <c r="M39">
-        <v>-32.6</v>
+        <v>-0.17100000000000001</v>
       </c>
       <c r="N39">
-        <v>1119.9000000000001</v>
+        <v>81.435000000000002</v>
       </c>
       <c r="O39">
-        <v>6400.7</v>
+        <v>93.287999999999997</v>
       </c>
       <c r="P39">
-        <v>2847.3</v>
+        <v>9.6839999999999993</v>
       </c>
       <c r="Q39">
-        <v>-367.8</v>
+        <v>28.89</v>
       </c>
       <c r="R39">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="S39">
         <v>0</v>
       </c>
       <c r="T39">
-        <v>11747.8</v>
+        <v>742.47500000000002</v>
       </c>
       <c r="U39">
-        <v>2315</v>
+        <v>186.06200000000001</v>
       </c>
       <c r="V39">
-        <v>549.6</v>
+        <v>21.492000000000001</v>
       </c>
       <c r="W39">
         <v>0</v>
       </c>
       <c r="X39">
-        <v>-138.19999999999999</v>
+        <v>10.736000000000001</v>
       </c>
       <c r="Y39">
-        <v>259.39999999999998</v>
+        <v>0.438</v>
       </c>
       <c r="Z39">
-        <v>87.5</v>
+        <v>4.1000000000000002E-2</v>
       </c>
       <c r="AA39">
-        <v>557.6</v>
+        <v>20.934000000000001</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="B40" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C40">
-        <v>-1068.0999999999999</v>
+        <v>21.773</v>
       </c>
       <c r="D40">
-        <v>1444.6</v>
+        <v>125.834</v>
       </c>
       <c r="E40">
-        <v>1372.2</v>
+        <v>127.023</v>
       </c>
       <c r="F40">
-        <v>1299.7</v>
+        <v>112.113</v>
       </c>
       <c r="G40">
-        <v>5367.9</v>
+        <v>491.78500000000003</v>
       </c>
       <c r="H40">
-        <v>16703.2</v>
+        <v>889.59400000000005</v>
       </c>
       <c r="I40">
-        <v>861.6</v>
+        <v>10.955</v>
       </c>
       <c r="J40">
-        <v>2381.1999999999998</v>
+        <v>3.718</v>
       </c>
       <c r="K40">
         <v>0</v>
@@ -3926,78 +4040,78 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <v>1120.0999999999999</v>
+        <v>89.228999999999999</v>
       </c>
       <c r="O40">
-        <v>6212.4</v>
+        <v>97.38</v>
       </c>
       <c r="P40">
-        <v>2818.6</v>
+        <v>4.3440000000000003</v>
       </c>
       <c r="Q40">
-        <v>517.1</v>
+        <v>26.042000000000002</v>
       </c>
       <c r="R40">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="S40">
         <v>0</v>
       </c>
       <c r="T40">
-        <v>10490.8</v>
+        <v>792.21400000000006</v>
       </c>
       <c r="U40">
-        <v>2825</v>
+        <v>212.10400000000001</v>
       </c>
       <c r="V40">
-        <v>790</v>
+        <v>45.462000000000003</v>
       </c>
       <c r="W40">
         <v>0</v>
       </c>
       <c r="X40">
-        <v>-292.5</v>
+        <v>3.4740000000000002</v>
       </c>
       <c r="Y40">
-        <v>265.10000000000002</v>
+        <v>0.38100000000000001</v>
       </c>
       <c r="Z40">
-        <v>21.3</v>
+        <v>-18.437999999999999</v>
       </c>
       <c r="AA40">
-        <v>-1068.0999999999999</v>
+        <v>21.773</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="B41" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C41">
-        <v>578.1</v>
+        <v>27.873000000000001</v>
       </c>
       <c r="D41">
-        <v>1588.7</v>
+        <v>141.56899999999999</v>
       </c>
       <c r="E41">
-        <v>1437.1</v>
+        <v>154.08799999999999</v>
       </c>
       <c r="F41">
-        <v>1444</v>
+        <v>125.074</v>
       </c>
       <c r="G41">
-        <v>5067.8</v>
+        <v>558.23699999999997</v>
       </c>
       <c r="H41">
-        <v>17548.400000000001</v>
+        <v>942.25699999999995</v>
       </c>
       <c r="I41">
-        <v>89.2</v>
+        <v>13.321999999999999</v>
       </c>
       <c r="J41">
-        <v>2510.9</v>
+        <v>3.718</v>
       </c>
       <c r="K41">
         <v>0</v>
@@ -4009,128 +4123,3448 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <v>1331</v>
+        <v>117.663</v>
       </c>
       <c r="O41">
-        <v>6473.5</v>
+        <v>130.441</v>
       </c>
       <c r="P41">
-        <v>2970.6</v>
+        <v>4.9630000000000001</v>
       </c>
       <c r="Q41">
-        <v>-544.4</v>
+        <v>-2.1480000000000001</v>
       </c>
       <c r="R41">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="S41">
         <v>0</v>
       </c>
       <c r="T41">
-        <v>11074.9</v>
+        <v>811.81600000000003</v>
       </c>
       <c r="U41">
-        <v>2268</v>
+        <v>209.95599999999999</v>
       </c>
       <c r="V41">
-        <v>822.8</v>
+        <v>42.942999999999998</v>
       </c>
       <c r="W41">
         <v>0</v>
       </c>
       <c r="X41">
-        <v>-107.4</v>
+        <v>8.8070000000000004</v>
       </c>
       <c r="Y41">
-        <v>275.5</v>
+        <v>0.30599999999999999</v>
       </c>
       <c r="Z41">
-        <v>17.899999999999999</v>
+        <v>-51.993000000000002</v>
       </c>
       <c r="AA41">
-        <v>578.1</v>
+        <v>27.873000000000001</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
+        <v>40543</v>
+      </c>
+      <c r="B42" t="s">
+        <v>65</v>
+      </c>
+      <c r="C42">
+        <v>26.45</v>
+      </c>
+      <c r="D42">
+        <v>155.97499999999999</v>
+      </c>
+      <c r="E42">
+        <v>168.732</v>
+      </c>
+      <c r="F42">
+        <v>135.75299999999999</v>
+      </c>
+      <c r="G42">
+        <v>646.55600000000004</v>
+      </c>
+      <c r="H42">
+        <v>1012.037</v>
+      </c>
+      <c r="I42">
+        <v>16.026</v>
+      </c>
+      <c r="J42">
+        <v>3.718</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>138.51499999999999</v>
+      </c>
+      <c r="O42">
+        <v>152.30099999999999</v>
+      </c>
+      <c r="P42">
+        <v>5.1769999999999996</v>
+      </c>
+      <c r="Q42">
+        <v>57.189</v>
+      </c>
+      <c r="R42">
+        <v>40543</v>
+      </c>
+      <c r="S42">
+        <v>792</v>
+      </c>
+      <c r="T42">
+        <v>859.73599999999999</v>
+      </c>
+      <c r="U42">
+        <v>267.14499999999998</v>
+      </c>
+      <c r="V42">
+        <v>51.009</v>
+      </c>
+      <c r="W42">
+        <v>0</v>
+      </c>
+      <c r="X42">
+        <v>15.85</v>
+      </c>
+      <c r="Y42">
+        <v>0.74399999999999999</v>
+      </c>
+      <c r="Z42">
+        <v>-6.0830000000000002</v>
+      </c>
+      <c r="AA42">
+        <v>26.45</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>40633</v>
+      </c>
+      <c r="B43" t="s">
+        <v>66</v>
+      </c>
+      <c r="C43">
+        <v>26.83</v>
+      </c>
+      <c r="D43">
+        <v>166.126</v>
+      </c>
+      <c r="E43">
+        <v>200.72900000000001</v>
+      </c>
+      <c r="F43">
+        <v>146.898</v>
+      </c>
+      <c r="G43">
+        <v>669.24599999999998</v>
+      </c>
+      <c r="H43">
+        <v>1154.529</v>
+      </c>
+      <c r="I43">
+        <v>9.0250000000000004</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>60</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>-9.1999999999999998E-2</v>
+      </c>
+      <c r="N43">
+        <v>217.18199999999999</v>
+      </c>
+      <c r="O43">
+        <v>253.16399999999999</v>
+      </c>
+      <c r="P43">
+        <v>65.231999999999999</v>
+      </c>
+      <c r="Q43">
+        <v>22.285</v>
+      </c>
+      <c r="R43">
+        <v>40633</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>901.36500000000001</v>
+      </c>
+      <c r="U43">
+        <v>289.43</v>
+      </c>
+      <c r="V43">
+        <v>24.361000000000001</v>
+      </c>
+      <c r="W43">
+        <v>0</v>
+      </c>
+      <c r="X43">
+        <v>69.891999999999996</v>
+      </c>
+      <c r="Y43">
+        <v>0.46200000000000002</v>
+      </c>
+      <c r="Z43">
+        <v>35</v>
+      </c>
+      <c r="AA43">
+        <v>26.83</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>40724</v>
+      </c>
+      <c r="B44" t="s">
+        <v>67</v>
+      </c>
+      <c r="C44">
+        <v>34.744999999999997</v>
+      </c>
+      <c r="D44">
+        <v>185.69900000000001</v>
+      </c>
+      <c r="E44">
+        <v>212.72</v>
+      </c>
+      <c r="F44">
+        <v>163.95400000000001</v>
+      </c>
+      <c r="G44">
+        <v>700.39499999999998</v>
+      </c>
+      <c r="H44">
+        <v>1179.575</v>
+      </c>
+      <c r="I44">
+        <v>13.446</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>187.78</v>
+      </c>
+      <c r="O44">
+        <v>226.07300000000001</v>
+      </c>
+      <c r="P44">
+        <v>2.06</v>
+      </c>
+      <c r="Q44">
+        <v>58.438000000000002</v>
+      </c>
+      <c r="R44">
+        <v>40724</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>953.50199999999995</v>
+      </c>
+      <c r="U44">
+        <v>347.86799999999999</v>
+      </c>
+      <c r="V44">
+        <v>78.683999999999997</v>
+      </c>
+      <c r="W44">
+        <v>0</v>
+      </c>
+      <c r="X44">
+        <v>-52.103999999999999</v>
+      </c>
+      <c r="Y44">
+        <v>0.378</v>
+      </c>
+      <c r="Z44">
+        <v>39.1</v>
+      </c>
+      <c r="AA44">
+        <v>34.744999999999997</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>40816</v>
+      </c>
+      <c r="B45" t="s">
+        <v>68</v>
+      </c>
+      <c r="C45">
+        <v>65.569999999999993</v>
+      </c>
+      <c r="D45">
+        <v>204.047</v>
+      </c>
+      <c r="E45">
+        <v>221.29300000000001</v>
+      </c>
+      <c r="F45">
+        <v>180.678</v>
+      </c>
+      <c r="G45">
+        <v>817.35599999999999</v>
+      </c>
+      <c r="H45">
+        <v>1305.0419999999999</v>
+      </c>
+      <c r="I45">
+        <v>14.372</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>211.244</v>
+      </c>
+      <c r="O45">
+        <v>249.31399999999999</v>
+      </c>
+      <c r="P45">
+        <v>1.716</v>
+      </c>
+      <c r="Q45">
+        <v>90.286000000000001</v>
+      </c>
+      <c r="R45">
+        <v>40816</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>1055.7280000000001</v>
+      </c>
+      <c r="U45">
+        <v>438.154</v>
+      </c>
+      <c r="V45">
+        <v>76.251999999999995</v>
+      </c>
+      <c r="W45">
+        <v>0</v>
+      </c>
+      <c r="X45">
+        <v>8.4090000000000007</v>
+      </c>
+      <c r="Y45">
+        <v>0.28599999999999998</v>
+      </c>
+      <c r="Z45">
+        <v>13</v>
+      </c>
+      <c r="AA45">
+        <v>65.569999999999993</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>40908</v>
+      </c>
+      <c r="B46" t="s">
+        <v>69</v>
+      </c>
+      <c r="C46">
+        <v>48.17</v>
+      </c>
+      <c r="D46">
+        <v>227.559</v>
+      </c>
+      <c r="E46">
+        <v>244.28800000000001</v>
+      </c>
+      <c r="F46">
+        <v>198.761</v>
+      </c>
+      <c r="G46">
+        <v>941.27</v>
+      </c>
+      <c r="H46">
+        <v>1394.751</v>
+      </c>
+      <c r="I46">
+        <v>16.029</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>227.785</v>
+      </c>
+      <c r="O46">
+        <v>260.25900000000001</v>
+      </c>
+      <c r="P46">
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <v>102.711</v>
+      </c>
+      <c r="R46">
+        <v>40908</v>
+      </c>
+      <c r="S46">
+        <v>1008</v>
+      </c>
+      <c r="T46">
+        <v>1134.492</v>
+      </c>
+      <c r="U46">
+        <v>540.86500000000001</v>
+      </c>
+      <c r="V46">
+        <v>90.787000000000006</v>
+      </c>
+      <c r="W46">
+        <v>0</v>
+      </c>
+      <c r="X46">
+        <v>12.853</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>7.3579999999999997</v>
+      </c>
+      <c r="AA46">
+        <v>48.17</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>40999</v>
+      </c>
+      <c r="B47" t="s">
+        <v>70</v>
+      </c>
+      <c r="C47">
+        <v>45.412999999999997</v>
+      </c>
+      <c r="D47">
+        <v>244.733</v>
+      </c>
+      <c r="E47">
+        <v>267.39699999999999</v>
+      </c>
+      <c r="F47">
+        <v>216.465</v>
+      </c>
+      <c r="G47">
+        <v>811.93399999999997</v>
+      </c>
+      <c r="H47">
+        <v>2017.4639999999999</v>
+      </c>
+      <c r="I47">
+        <v>16.023</v>
+      </c>
+      <c r="J47">
+        <v>247</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>353.67700000000002</v>
+      </c>
+      <c r="O47">
+        <v>804.18399999999997</v>
+      </c>
+      <c r="P47">
+        <v>355</v>
+      </c>
+      <c r="Q47">
+        <v>-181.477</v>
+      </c>
+      <c r="R47">
+        <v>40999</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>1213.28</v>
+      </c>
+      <c r="U47">
+        <v>359.38799999999998</v>
+      </c>
+      <c r="V47">
+        <v>62.805</v>
+      </c>
+      <c r="W47">
+        <v>0</v>
+      </c>
+      <c r="X47">
+        <v>364.62200000000001</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <v>0</v>
+      </c>
+      <c r="AA47">
+        <v>45.412999999999997</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>41090</v>
+      </c>
+      <c r="B48" t="s">
+        <v>71</v>
+      </c>
+      <c r="C48">
+        <v>36.258000000000003</v>
+      </c>
+      <c r="D48">
+        <v>274.71899999999999</v>
+      </c>
+      <c r="E48">
+        <v>282.72199999999998</v>
+      </c>
+      <c r="F48">
+        <v>243.10599999999999</v>
+      </c>
+      <c r="G48">
+        <v>1276.1610000000001</v>
+      </c>
+      <c r="H48">
+        <v>2457.61</v>
+      </c>
+      <c r="I48">
+        <v>23.751999999999999</v>
+      </c>
+      <c r="J48">
+        <v>180</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>375.16199999999998</v>
+      </c>
+      <c r="O48">
+        <v>707.91600000000005</v>
+      </c>
+      <c r="P48">
+        <v>228</v>
+      </c>
+      <c r="Q48">
+        <v>446.822</v>
+      </c>
+      <c r="R48">
+        <v>41090</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>1749.694</v>
+      </c>
+      <c r="U48">
+        <v>806.21</v>
+      </c>
+      <c r="V48">
+        <v>101.527</v>
+      </c>
+      <c r="W48">
+        <v>0</v>
+      </c>
+      <c r="X48">
+        <v>350.94799999999998</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>0</v>
+      </c>
+      <c r="AA48">
+        <v>36.258000000000003</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>41182</v>
+      </c>
+      <c r="B49" t="s">
+        <v>72</v>
+      </c>
+      <c r="C49">
+        <v>92.18</v>
+      </c>
+      <c r="D49">
+        <v>294.13600000000002</v>
+      </c>
+      <c r="E49">
+        <v>311.36900000000003</v>
+      </c>
+      <c r="F49">
+        <v>260.95</v>
+      </c>
+      <c r="G49">
+        <v>1410.3910000000001</v>
+      </c>
+      <c r="H49">
+        <v>2505.6080000000002</v>
+      </c>
+      <c r="I49">
+        <v>21.962</v>
+      </c>
+      <c r="J49">
+        <v>113</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>361.94200000000001</v>
+      </c>
+      <c r="O49">
+        <v>633.173</v>
+      </c>
+      <c r="P49">
+        <v>161</v>
+      </c>
+      <c r="Q49">
+        <v>99.316000000000003</v>
+      </c>
+      <c r="R49">
+        <v>41182</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <v>1872.4349999999999</v>
+      </c>
+      <c r="U49">
+        <v>905.52599999999995</v>
+      </c>
+      <c r="V49">
+        <v>141.32400000000001</v>
+      </c>
+      <c r="W49">
+        <v>0</v>
+      </c>
+      <c r="X49">
+        <v>-36.688000000000002</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <v>0</v>
+      </c>
+      <c r="AA49">
+        <v>92.179000000000002</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>41274</v>
+      </c>
+      <c r="B50" t="s">
+        <v>73</v>
+      </c>
+      <c r="C50">
+        <v>80.971000000000004</v>
+      </c>
+      <c r="D50">
+        <v>320.52600000000001</v>
+      </c>
+      <c r="E50">
+        <v>295.59800000000001</v>
+      </c>
+      <c r="F50">
+        <v>287.37900000000002</v>
+      </c>
+      <c r="G50">
+        <v>1495.6</v>
+      </c>
+      <c r="H50">
+        <v>2613.56</v>
+      </c>
+      <c r="I50">
+        <v>21.488</v>
+      </c>
+      <c r="J50">
+        <v>101</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>360.089</v>
+      </c>
+      <c r="O50">
+        <v>642.71</v>
+      </c>
+      <c r="P50">
+        <v>149</v>
+      </c>
+      <c r="Q50">
+        <v>83.974999999999994</v>
+      </c>
+      <c r="R50">
+        <v>41274</v>
+      </c>
+      <c r="S50">
+        <v>1373</v>
+      </c>
+      <c r="T50">
+        <v>1970.85</v>
+      </c>
+      <c r="U50">
+        <v>989.50099999999998</v>
+      </c>
+      <c r="V50">
+        <v>104.95699999999999</v>
+      </c>
+      <c r="W50">
+        <v>0</v>
+      </c>
+      <c r="X50">
+        <v>-12.506</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>0</v>
+      </c>
+      <c r="AA50">
+        <v>80.971000000000004</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>41364</v>
+      </c>
+      <c r="B51" t="s">
+        <v>74</v>
+      </c>
+      <c r="C51">
+        <v>82.216999999999999</v>
+      </c>
+      <c r="D51">
+        <v>338.94099999999997</v>
+      </c>
+      <c r="E51">
+        <v>323.90699999999998</v>
+      </c>
+      <c r="F51">
+        <v>303.67200000000003</v>
+      </c>
+      <c r="G51">
+        <v>1550.0409999999999</v>
+      </c>
+      <c r="H51">
+        <v>2685.8809999999999</v>
+      </c>
+      <c r="I51">
+        <v>25.585999999999999</v>
+      </c>
+      <c r="J51">
+        <v>101</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>295.74700000000001</v>
+      </c>
+      <c r="O51">
+        <v>595.82799999999997</v>
+      </c>
+      <c r="P51">
+        <v>149</v>
+      </c>
+      <c r="Q51">
+        <v>33.459000000000003</v>
+      </c>
+      <c r="R51">
+        <v>41364</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <v>2090.0529999999999</v>
+      </c>
+      <c r="U51">
+        <v>1022.96</v>
+      </c>
+      <c r="V51">
+        <v>46.497</v>
+      </c>
+      <c r="W51">
+        <v>0</v>
+      </c>
+      <c r="X51">
+        <v>-4.3079999999999998</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <v>0</v>
+      </c>
+      <c r="AA51">
+        <v>82.216999999999999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>41455</v>
+      </c>
+      <c r="B52" t="s">
+        <v>75</v>
+      </c>
+      <c r="C52">
+        <v>95.885000000000005</v>
+      </c>
+      <c r="D52">
+        <v>370.09100000000001</v>
+      </c>
+      <c r="E52">
+        <v>355.28399999999999</v>
+      </c>
+      <c r="F52">
+        <v>330.714</v>
+      </c>
+      <c r="G52">
+        <v>1678.633</v>
+      </c>
+      <c r="H52">
+        <v>2815.2379999999998</v>
+      </c>
+      <c r="I52">
+        <v>25.587</v>
+      </c>
+      <c r="J52">
+        <v>89</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>302.97800000000001</v>
+      </c>
+      <c r="O52">
+        <v>603.69799999999998</v>
+      </c>
+      <c r="P52">
+        <v>143.85400000000001</v>
+      </c>
+      <c r="Q52">
+        <v>-86.495999999999995</v>
+      </c>
+      <c r="R52">
+        <v>41455</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <v>2211.54</v>
+      </c>
+      <c r="U52">
+        <v>936.46400000000006</v>
+      </c>
+      <c r="V52">
+        <v>97.695999999999998</v>
+      </c>
+      <c r="W52">
+        <v>0</v>
+      </c>
+      <c r="X52">
+        <v>6.9669999999999996</v>
+      </c>
+      <c r="Y52">
+        <v>6.8540000000000001</v>
+      </c>
+      <c r="Z52">
+        <v>-183.32</v>
+      </c>
+      <c r="AA52">
+        <v>95.885000000000005</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>41547</v>
+      </c>
+      <c r="B53" t="s">
+        <v>76</v>
+      </c>
+      <c r="C53">
+        <v>93.784999999999997</v>
+      </c>
+      <c r="D53">
+        <v>400.40499999999997</v>
+      </c>
+      <c r="E53">
+        <v>404.95600000000002</v>
+      </c>
+      <c r="F53">
+        <v>367.40899999999999</v>
+      </c>
+      <c r="G53">
+        <v>1915.502</v>
+      </c>
+      <c r="H53">
+        <v>3049.7950000000001</v>
+      </c>
+      <c r="I53">
+        <v>24.416</v>
+      </c>
+      <c r="J53">
+        <v>77</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>395.45600000000002</v>
+      </c>
+      <c r="O53">
+        <v>695.029</v>
+      </c>
+      <c r="P53">
+        <v>137.251</v>
+      </c>
+      <c r="Q53">
+        <v>-26.053000000000001</v>
+      </c>
+      <c r="R53">
+        <v>41547</v>
+      </c>
+      <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <v>2354.7660000000001</v>
+      </c>
+      <c r="U53">
+        <v>910.41099999999994</v>
+      </c>
+      <c r="V53">
+        <v>144.27500000000001</v>
+      </c>
+      <c r="W53">
+        <v>0</v>
+      </c>
+      <c r="X53">
+        <v>44.463999999999999</v>
+      </c>
+      <c r="Y53">
+        <v>12.250999999999999</v>
+      </c>
+      <c r="Z53">
+        <v>-209.71700000000001</v>
+      </c>
+      <c r="AA53">
+        <v>93.784999999999997</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
+        <v>41639</v>
+      </c>
+      <c r="B54" t="s">
+        <v>77</v>
+      </c>
+      <c r="C54">
+        <v>-18.992000000000001</v>
+      </c>
+      <c r="D54">
+        <v>441.90899999999999</v>
+      </c>
+      <c r="E54">
+        <v>421.75200000000001</v>
+      </c>
+      <c r="F54">
+        <v>390.35700000000003</v>
+      </c>
+      <c r="G54">
+        <v>2186.857</v>
+      </c>
+      <c r="H54">
+        <v>3317.6959999999999</v>
+      </c>
+      <c r="I54">
+        <v>21.596</v>
+      </c>
+      <c r="J54">
+        <v>65</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>582.42899999999997</v>
+      </c>
+      <c r="O54">
+        <v>935.61699999999996</v>
+      </c>
+      <c r="P54">
+        <v>145.22999999999999</v>
+      </c>
+      <c r="Q54">
+        <v>-380.55399999999997</v>
+      </c>
+      <c r="R54">
+        <v>41639</v>
+      </c>
+      <c r="S54">
+        <v>1774</v>
+      </c>
+      <c r="T54">
+        <v>2382.0790000000002</v>
+      </c>
+      <c r="U54">
+        <v>529.85699999999997</v>
+      </c>
+      <c r="V54">
+        <v>208.881</v>
+      </c>
+      <c r="W54">
+        <v>0</v>
+      </c>
+      <c r="X54">
+        <v>24.515999999999998</v>
+      </c>
+      <c r="Y54">
+        <v>32.229999999999997</v>
+      </c>
+      <c r="Z54">
+        <v>-595.46</v>
+      </c>
+      <c r="AA54">
+        <v>-18.992000000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A55" s="1">
+        <v>41729</v>
+      </c>
+      <c r="B55" t="s">
+        <v>78</v>
+      </c>
+      <c r="C55">
+        <v>159.35400000000001</v>
+      </c>
+      <c r="D55">
+        <v>566.61599999999999</v>
+      </c>
+      <c r="E55">
+        <v>429.02100000000002</v>
+      </c>
+      <c r="F55">
+        <v>533.67700000000002</v>
+      </c>
+      <c r="G55">
+        <v>2245.88</v>
+      </c>
+      <c r="H55">
+        <v>3379.6660000000002</v>
+      </c>
+      <c r="I55">
+        <v>35.338999999999999</v>
+      </c>
+      <c r="J55">
+        <v>45.5</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>-19.5</v>
+      </c>
+      <c r="N55">
+        <v>396.822</v>
+      </c>
+      <c r="O55">
+        <v>678.68799999999999</v>
+      </c>
+      <c r="P55">
+        <v>131.917</v>
+      </c>
+      <c r="Q55">
+        <v>-1.5720000000000001</v>
+      </c>
+      <c r="R55">
+        <v>41729</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <v>2700.9780000000001</v>
+      </c>
+      <c r="U55">
+        <v>528.28499999999997</v>
+      </c>
+      <c r="V55">
+        <v>-31.055</v>
+      </c>
+      <c r="W55">
+        <v>0</v>
+      </c>
+      <c r="X55">
+        <v>119.212</v>
+      </c>
+      <c r="Y55">
+        <v>38.417000000000002</v>
+      </c>
+      <c r="Z55">
+        <v>-72.534000000000006</v>
+      </c>
+      <c r="AA55">
+        <v>159.35400000000001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
+        <v>41820</v>
+      </c>
+      <c r="B56" t="s">
+        <v>79</v>
+      </c>
+      <c r="C56">
+        <v>166.495</v>
+      </c>
+      <c r="D56">
+        <v>512.495</v>
+      </c>
+      <c r="E56">
+        <v>440.69900000000001</v>
+      </c>
+      <c r="F56">
+        <v>472.86900000000003</v>
+      </c>
+      <c r="G56">
+        <v>2341.306</v>
+      </c>
+      <c r="H56">
+        <v>3553.81</v>
+      </c>
+      <c r="I56">
+        <v>36.066000000000003</v>
+      </c>
+      <c r="J56">
+        <v>33.5</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>417.70100000000002</v>
+      </c>
+      <c r="O56">
+        <v>672.22799999999995</v>
+      </c>
+      <c r="P56">
+        <v>141.01499999999999</v>
+      </c>
+      <c r="Q56">
+        <v>83.76</v>
+      </c>
+      <c r="R56">
+        <v>41820</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <v>2881.5819999999999</v>
+      </c>
+      <c r="U56">
+        <v>612.04499999999996</v>
+      </c>
+      <c r="V56">
+        <v>106.15</v>
+      </c>
+      <c r="W56">
+        <v>0</v>
+      </c>
+      <c r="X56">
+        <v>-22.58</v>
+      </c>
+      <c r="Y56">
+        <v>59.515000000000001</v>
+      </c>
+      <c r="Z56">
+        <v>43.581000000000003</v>
+      </c>
+      <c r="AA56">
+        <v>166.495</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A57" s="1">
+        <v>41912</v>
+      </c>
+      <c r="B57" t="s">
+        <v>80</v>
+      </c>
+      <c r="C57">
+        <v>177.73099999999999</v>
+      </c>
+      <c r="D57">
+        <v>555.14599999999996</v>
+      </c>
+      <c r="E57">
+        <v>436.46699999999998</v>
+      </c>
+      <c r="F57">
+        <v>503.28800000000001</v>
+      </c>
+      <c r="G57">
+        <v>2559.8780000000002</v>
+      </c>
+      <c r="H57">
+        <v>3890.8870000000002</v>
+      </c>
+      <c r="I57">
+        <v>23.175000000000001</v>
+      </c>
+      <c r="J57">
+        <v>21.5</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>502.53699999999998</v>
+      </c>
+      <c r="O57">
+        <v>767.84799999999996</v>
+      </c>
+      <c r="P57">
+        <v>156.53</v>
+      </c>
+      <c r="Q57">
+        <v>140.119</v>
+      </c>
+      <c r="R57">
+        <v>41912</v>
+      </c>
+      <c r="S57">
+        <v>0</v>
+      </c>
+      <c r="T57">
+        <v>3123.0390000000002</v>
+      </c>
+      <c r="U57">
+        <v>752.16399999999999</v>
+      </c>
+      <c r="V57">
+        <v>281.52100000000002</v>
+      </c>
+      <c r="W57">
+        <v>0</v>
+      </c>
+      <c r="X57">
+        <v>-59.393999999999998</v>
+      </c>
+      <c r="Y57">
+        <v>87.03</v>
+      </c>
+      <c r="Z57">
+        <v>-52.151000000000003</v>
+      </c>
+      <c r="AA57">
+        <v>177.73099999999999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A58" s="1">
+        <v>42004</v>
+      </c>
+      <c r="B58" t="s">
+        <v>81</v>
+      </c>
+      <c r="C58">
+        <v>153.33199999999999</v>
+      </c>
+      <c r="D58">
+        <v>599.476</v>
+      </c>
+      <c r="E58">
+        <v>432.88799999999998</v>
+      </c>
+      <c r="F58">
+        <v>550.03700000000003</v>
+      </c>
+      <c r="G58">
+        <v>2796.029</v>
+      </c>
+      <c r="H58">
+        <v>4201.9620000000004</v>
+      </c>
+      <c r="I58">
+        <v>44.015999999999998</v>
+      </c>
+      <c r="J58">
+        <v>9.5</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>606.74</v>
+      </c>
+      <c r="O58">
+        <v>899.94399999999996</v>
+      </c>
+      <c r="P58">
+        <v>164.59899999999999</v>
+      </c>
+      <c r="Q58">
+        <v>191.83500000000001</v>
+      </c>
+      <c r="R58">
+        <v>42004</v>
+      </c>
+      <c r="S58">
+        <v>2273</v>
+      </c>
+      <c r="T58">
+        <v>3302.018</v>
+      </c>
+      <c r="U58">
+        <v>943.99900000000002</v>
+      </c>
+      <c r="V58">
+        <v>283.459</v>
+      </c>
+      <c r="W58">
+        <v>0</v>
+      </c>
+      <c r="X58">
+        <v>-30.111999999999998</v>
+      </c>
+      <c r="Y58">
+        <v>107.099</v>
+      </c>
+      <c r="Z58">
+        <v>-4.4219999999999997</v>
+      </c>
+      <c r="AA58">
+        <v>153.33199999999999</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A59" s="1">
+        <v>42094</v>
+      </c>
+      <c r="B59" t="s">
+        <v>82</v>
+      </c>
+      <c r="C59">
+        <v>91.322999999999993</v>
+      </c>
+      <c r="D59">
+        <v>600.33299999999997</v>
+      </c>
+      <c r="E59">
+        <v>479.88299999999998</v>
+      </c>
+      <c r="F59">
+        <v>530.93399999999997</v>
+      </c>
+      <c r="G59">
+        <v>2852.9870000000001</v>
+      </c>
+      <c r="H59">
+        <v>4414.9250000000002</v>
+      </c>
+      <c r="I59">
+        <v>52.869</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>-12</v>
+      </c>
+      <c r="N59">
+        <v>580.43899999999996</v>
+      </c>
+      <c r="O59">
+        <v>898.02300000000002</v>
+      </c>
+      <c r="P59">
+        <v>160.41200000000001</v>
+      </c>
+      <c r="Q59">
+        <v>-27.184999999999999</v>
+      </c>
+      <c r="R59">
+        <v>42094</v>
+      </c>
+      <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <v>3516.902</v>
+      </c>
+      <c r="U59">
+        <v>916.81399999999996</v>
+      </c>
+      <c r="V59">
+        <v>23.033999999999999</v>
+      </c>
+      <c r="W59">
+        <v>0</v>
+      </c>
+      <c r="X59">
+        <v>5.0739999999999998</v>
+      </c>
+      <c r="Y59">
+        <v>114.91200000000001</v>
+      </c>
+      <c r="Z59">
+        <v>7.7009999999999996</v>
+      </c>
+      <c r="AA59">
+        <v>91.322999999999993</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A60" s="1">
+        <v>42185</v>
+      </c>
+      <c r="B60" t="s">
+        <v>83</v>
+      </c>
+      <c r="C60">
+        <v>170.215</v>
+      </c>
+      <c r="D60">
+        <v>636.21</v>
+      </c>
+      <c r="E60">
+        <v>535.82399999999996</v>
+      </c>
+      <c r="F60">
+        <v>584.20299999999997</v>
+      </c>
+      <c r="G60">
+        <v>2533.2379999999998</v>
+      </c>
+      <c r="H60">
+        <v>13167.718999999999</v>
+      </c>
+      <c r="I60">
+        <v>47.039000000000001</v>
+      </c>
+      <c r="J60">
+        <v>3368.75</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>769.16899999999998</v>
+      </c>
+      <c r="O60">
+        <v>4614.848</v>
+      </c>
+      <c r="P60">
+        <v>3629.56</v>
+      </c>
+      <c r="Q60">
+        <v>405.30900000000003</v>
+      </c>
+      <c r="R60">
+        <v>42185</v>
+      </c>
+      <c r="S60">
+        <v>0</v>
+      </c>
+      <c r="T60">
+        <v>8552.8709999999992</v>
+      </c>
+      <c r="U60">
+        <v>1322.123</v>
+      </c>
+      <c r="V60">
+        <v>238.22200000000001</v>
+      </c>
+      <c r="W60">
+        <v>0</v>
+      </c>
+      <c r="X60">
+        <v>3346.3409999999999</v>
+      </c>
+      <c r="Y60">
+        <v>129.56</v>
+      </c>
+      <c r="Z60">
+        <v>831.93899999999996</v>
+      </c>
+      <c r="AA60">
+        <v>170.215</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A61" s="1">
+        <v>42277</v>
+      </c>
+      <c r="B61" t="s">
+        <v>84</v>
+      </c>
+      <c r="C61">
+        <v>-183.75700000000001</v>
+      </c>
+      <c r="D61">
+        <v>666.63699999999994</v>
+      </c>
+      <c r="E61">
+        <v>512.25300000000004</v>
+      </c>
+      <c r="F61">
+        <v>612.58000000000004</v>
+      </c>
+      <c r="G61">
+        <v>2480.2190000000001</v>
+      </c>
+      <c r="H61">
+        <v>13153.014999999999</v>
+      </c>
+      <c r="I61">
+        <v>46.973999999999997</v>
+      </c>
+      <c r="J61">
+        <v>3325</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>766.86</v>
+      </c>
+      <c r="O61">
+        <v>4900.1459999999997</v>
+      </c>
+      <c r="P61">
+        <v>3649.6039999999998</v>
+      </c>
+      <c r="Q61">
+        <v>-158.84200000000001</v>
+      </c>
+      <c r="R61">
+        <v>42277</v>
+      </c>
+      <c r="S61">
+        <v>0</v>
+      </c>
+      <c r="T61">
+        <v>8252.8690000000006</v>
+      </c>
+      <c r="U61">
+        <v>1163.2809999999999</v>
+      </c>
+      <c r="V61">
+        <v>223.08600000000001</v>
+      </c>
+      <c r="W61">
+        <v>0</v>
+      </c>
+      <c r="X61">
+        <v>-185.02799999999999</v>
+      </c>
+      <c r="Y61">
+        <v>149.60400000000001</v>
+      </c>
+      <c r="Z61">
+        <v>-123.17100000000001</v>
+      </c>
+      <c r="AA61">
+        <v>-183.75700000000001</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A62" s="1">
+        <v>42369</v>
+      </c>
+      <c r="B62" t="s">
+        <v>85</v>
+      </c>
+      <c r="C62">
+        <v>66.218999999999994</v>
+      </c>
+      <c r="D62">
+        <v>700.82</v>
+      </c>
+      <c r="E62">
+        <v>533</v>
+      </c>
+      <c r="F62">
+        <v>643.28300000000002</v>
+      </c>
+      <c r="G62">
+        <v>2416</v>
+      </c>
+      <c r="H62">
+        <v>13097</v>
+      </c>
+      <c r="I62">
+        <v>57</v>
+      </c>
+      <c r="J62">
+        <v>3254</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>709</v>
+      </c>
+      <c r="O62">
+        <v>4838</v>
+      </c>
+      <c r="P62">
+        <v>3571</v>
+      </c>
+      <c r="Q62">
+        <v>-153.28200000000001</v>
+      </c>
+      <c r="R62">
+        <v>42369</v>
+      </c>
+      <c r="S62">
+        <v>2924</v>
+      </c>
+      <c r="T62">
+        <v>8259</v>
+      </c>
+      <c r="U62">
+        <v>1010</v>
+      </c>
+      <c r="V62">
+        <v>190.65799999999999</v>
+      </c>
+      <c r="W62">
+        <v>0</v>
+      </c>
+      <c r="X62">
+        <v>-181.387</v>
+      </c>
+      <c r="Y62">
+        <v>151</v>
+      </c>
+      <c r="Z62">
+        <v>-81.468999999999994</v>
+      </c>
+      <c r="AA62">
+        <v>66.218999999999994</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A63" s="1">
+        <v>42460</v>
+      </c>
+      <c r="B63" t="s">
+        <v>86</v>
+      </c>
+      <c r="C63">
+        <v>92</v>
+      </c>
+      <c r="D63">
+        <v>701</v>
+      </c>
+      <c r="E63">
+        <v>586.24900000000002</v>
+      </c>
+      <c r="F63">
+        <v>642</v>
+      </c>
+      <c r="G63">
+        <v>2127.509</v>
+      </c>
+      <c r="H63">
+        <v>12802.445</v>
+      </c>
+      <c r="I63">
+        <v>42.896999999999998</v>
+      </c>
+      <c r="J63">
+        <v>3212.7719999999999</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>-175</v>
+      </c>
+      <c r="N63">
+        <v>603.61300000000006</v>
+      </c>
+      <c r="O63">
+        <v>4740.1679999999997</v>
+      </c>
+      <c r="P63">
+        <v>3421.1</v>
+      </c>
+      <c r="Q63">
+        <v>-300</v>
+      </c>
+      <c r="R63">
+        <v>42460</v>
+      </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
+      <c r="T63">
+        <v>8062.277</v>
+      </c>
+      <c r="U63">
+        <v>710.19799999999998</v>
+      </c>
+      <c r="V63">
+        <v>174</v>
+      </c>
+      <c r="W63">
+        <v>0</v>
+      </c>
+      <c r="X63">
+        <v>-472</v>
+      </c>
+      <c r="Y63">
+        <v>172.97</v>
+      </c>
+      <c r="Z63">
+        <v>58</v>
+      </c>
+      <c r="AA63">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A64" s="1">
+        <v>42551</v>
+      </c>
+      <c r="B64" t="s">
+        <v>87</v>
+      </c>
+      <c r="C64">
+        <v>120</v>
+      </c>
+      <c r="D64">
+        <v>753</v>
+      </c>
+      <c r="E64">
+        <v>609.29700000000003</v>
+      </c>
+      <c r="F64">
+        <v>693</v>
+      </c>
+      <c r="G64">
+        <v>2361.2089999999998</v>
+      </c>
+      <c r="H64">
+        <v>13029.347</v>
+      </c>
+      <c r="I64">
+        <v>28.978000000000002</v>
+      </c>
+      <c r="J64">
+        <v>3175.9050000000002</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>658.46199999999999</v>
+      </c>
+      <c r="O64">
+        <v>4830.0079999999998</v>
+      </c>
+      <c r="P64">
+        <v>3452.49</v>
+      </c>
+      <c r="Q64">
+        <v>-112</v>
+      </c>
+      <c r="R64">
+        <v>42551</v>
+      </c>
+      <c r="S64">
+        <v>0</v>
+      </c>
+      <c r="T64">
+        <v>8199.3389999999999</v>
+      </c>
+      <c r="U64">
+        <v>597.54999999999995</v>
+      </c>
+      <c r="V64">
+        <v>239</v>
+      </c>
+      <c r="W64">
+        <v>0</v>
+      </c>
+      <c r="X64">
+        <v>-19</v>
+      </c>
+      <c r="Y64">
+        <v>196.43899999999999</v>
+      </c>
+      <c r="Z64">
+        <v>-263</v>
+      </c>
+      <c r="AA64">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A65" s="1">
+        <v>42643</v>
+      </c>
+      <c r="B65" t="s">
+        <v>88</v>
+      </c>
+      <c r="C65">
+        <v>94</v>
+      </c>
+      <c r="D65">
+        <v>799</v>
+      </c>
+      <c r="E65">
+        <v>676.83699999999999</v>
+      </c>
+      <c r="F65">
+        <v>728</v>
+      </c>
+      <c r="G65">
+        <v>2594.5340000000001</v>
+      </c>
+      <c r="H65">
+        <v>13293.462</v>
+      </c>
+      <c r="I65">
+        <v>44.848999999999997</v>
+      </c>
+      <c r="J65">
+        <v>2930.181</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>1034.3409999999999</v>
+      </c>
+      <c r="O65">
+        <v>4789.3590000000004</v>
+      </c>
+      <c r="P65">
+        <v>3478.511</v>
+      </c>
+      <c r="Q65">
+        <v>164</v>
+      </c>
+      <c r="R65">
+        <v>42643</v>
+      </c>
+      <c r="S65">
+        <v>0</v>
+      </c>
+      <c r="T65">
+        <v>8504.1029999999992</v>
+      </c>
+      <c r="U65">
+        <v>761.98900000000003</v>
+      </c>
+      <c r="V65">
+        <v>290</v>
+      </c>
+      <c r="W65">
+        <v>0</v>
+      </c>
+      <c r="X65">
+        <v>-61</v>
+      </c>
+      <c r="Y65">
+        <v>224.44200000000001</v>
+      </c>
+      <c r="Z65">
+        <v>28</v>
+      </c>
+      <c r="AA65">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A66" s="1">
+        <v>42735</v>
+      </c>
+      <c r="B66" t="s">
+        <v>89</v>
+      </c>
+      <c r="C66">
+        <v>93.4</v>
+      </c>
+      <c r="D66">
+        <v>831.1</v>
+      </c>
+      <c r="E66">
+        <v>649.6</v>
+      </c>
+      <c r="F66">
+        <v>762.8</v>
+      </c>
+      <c r="G66">
+        <v>2578.1999999999998</v>
+      </c>
+      <c r="H66">
+        <v>13253.3</v>
+      </c>
+      <c r="I66">
+        <v>64.099999999999994</v>
+      </c>
+      <c r="J66">
+        <v>2888.1</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>822.9</v>
+      </c>
+      <c r="O66">
+        <v>4559.5</v>
+      </c>
+      <c r="P66">
+        <v>3289</v>
+      </c>
+      <c r="Q66">
+        <v>203.9</v>
+      </c>
+      <c r="R66">
+        <v>42735</v>
+      </c>
+      <c r="S66">
+        <v>3121</v>
+      </c>
+      <c r="T66">
+        <v>8693.7999999999993</v>
+      </c>
+      <c r="U66">
+        <v>966</v>
+      </c>
+      <c r="V66">
+        <v>383.3</v>
+      </c>
+      <c r="W66">
+        <v>0</v>
+      </c>
+      <c r="X66">
+        <v>-284.2</v>
+      </c>
+      <c r="Y66">
+        <v>233.4</v>
+      </c>
+      <c r="Z66">
+        <v>223.2</v>
+      </c>
+      <c r="AA66">
+        <v>93.4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A67" s="1">
+        <v>42825</v>
+      </c>
+      <c r="B67" t="s">
+        <v>90</v>
+      </c>
+      <c r="C67">
+        <v>170.1</v>
+      </c>
+      <c r="D67">
+        <v>869.6</v>
+      </c>
+      <c r="E67">
+        <v>660</v>
+      </c>
+      <c r="F67">
+        <v>800.6</v>
+      </c>
+      <c r="G67">
+        <v>2733</v>
+      </c>
+      <c r="H67">
+        <v>13435</v>
+      </c>
+      <c r="I67">
+        <v>61</v>
+      </c>
+      <c r="J67">
+        <v>2846</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>-43.8</v>
+      </c>
+      <c r="N67">
+        <v>837</v>
+      </c>
+      <c r="O67">
+        <v>4579</v>
+      </c>
+      <c r="P67">
+        <v>3283</v>
+      </c>
+      <c r="Q67">
+        <v>-252.9</v>
+      </c>
+      <c r="R67">
+        <v>42825</v>
+      </c>
+      <c r="S67">
+        <v>0</v>
+      </c>
+      <c r="T67">
+        <v>8856</v>
+      </c>
+      <c r="U67">
+        <v>713</v>
+      </c>
+      <c r="V67">
+        <v>307.89999999999998</v>
+      </c>
+      <c r="W67">
+        <v>0</v>
+      </c>
+      <c r="X67">
+        <v>-68.7</v>
+      </c>
+      <c r="Y67">
+        <v>270</v>
+      </c>
+      <c r="Z67">
+        <v>-418.5</v>
+      </c>
+      <c r="AA67">
+        <v>170.1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A68" s="1">
+        <v>42916</v>
+      </c>
+      <c r="B68" t="s">
+        <v>91</v>
+      </c>
+      <c r="C68">
+        <v>165.2</v>
+      </c>
+      <c r="D68">
+        <v>912.7</v>
+      </c>
+      <c r="E68">
+        <v>710</v>
+      </c>
+      <c r="F68">
+        <v>829.1</v>
+      </c>
+      <c r="G68">
+        <v>2789</v>
+      </c>
+      <c r="H68">
+        <v>13489</v>
+      </c>
+      <c r="I68">
+        <v>51</v>
+      </c>
+      <c r="J68">
+        <v>2806</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>856</v>
+      </c>
+      <c r="O68">
+        <v>4614</v>
+      </c>
+      <c r="P68">
+        <v>3251</v>
+      </c>
+      <c r="Q68">
+        <v>-171.3</v>
+      </c>
+      <c r="R68">
+        <v>42916</v>
+      </c>
+      <c r="S68">
+        <v>0</v>
+      </c>
+      <c r="T68">
+        <v>8875</v>
+      </c>
+      <c r="U68">
+        <v>542</v>
+      </c>
+      <c r="V68">
+        <v>280.10000000000002</v>
+      </c>
+      <c r="W68">
+        <v>0</v>
+      </c>
+      <c r="X68">
+        <v>-207</v>
+      </c>
+      <c r="Y68">
+        <v>277</v>
+      </c>
+      <c r="Z68">
+        <v>-152.19999999999999</v>
+      </c>
+      <c r="AA68">
+        <v>165.2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A69" s="1">
+        <v>43008</v>
+      </c>
+      <c r="B69" t="s">
+        <v>92</v>
+      </c>
+      <c r="C69">
+        <v>78</v>
+      </c>
+      <c r="D69">
+        <v>859.1</v>
+      </c>
+      <c r="E69">
+        <v>705</v>
+      </c>
+      <c r="F69">
+        <v>785.1</v>
+      </c>
+      <c r="G69">
+        <v>2882</v>
+      </c>
+      <c r="H69">
+        <v>13643</v>
+      </c>
+      <c r="I69">
+        <v>35</v>
+      </c>
+      <c r="J69">
+        <v>2764</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>972</v>
+      </c>
+      <c r="O69">
+        <v>4699</v>
+      </c>
+      <c r="P69">
+        <v>3265</v>
+      </c>
+      <c r="Q69">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="R69">
+        <v>43008</v>
+      </c>
+      <c r="S69">
+        <v>0</v>
+      </c>
+      <c r="T69">
+        <v>8944</v>
+      </c>
+      <c r="U69">
+        <v>550</v>
+      </c>
+      <c r="V69">
+        <v>269.5</v>
+      </c>
+      <c r="W69">
+        <v>0</v>
+      </c>
+      <c r="X69">
+        <v>-95.5</v>
+      </c>
+      <c r="Y69">
+        <v>333</v>
+      </c>
+      <c r="Z69">
+        <v>-77</v>
+      </c>
+      <c r="AA69">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A70" s="1">
+        <v>43100</v>
+      </c>
+      <c r="B70" t="s">
+        <v>93</v>
+      </c>
+      <c r="C70">
+        <v>30</v>
+      </c>
+      <c r="D70">
+        <v>909.7</v>
+      </c>
+      <c r="E70">
+        <v>726.5</v>
+      </c>
+      <c r="F70">
+        <v>834.2</v>
+      </c>
+      <c r="G70">
+        <v>2953.9</v>
+      </c>
+      <c r="H70">
+        <v>13583.3</v>
+      </c>
+      <c r="I70">
+        <v>70.8</v>
+      </c>
+      <c r="J70">
+        <v>2720.7</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>952.5</v>
+      </c>
+      <c r="O70">
+        <v>4690.2</v>
+      </c>
+      <c r="P70">
+        <v>3241.4</v>
+      </c>
+      <c r="Q70">
+        <v>34.299999999999997</v>
+      </c>
+      <c r="R70">
+        <v>43100</v>
+      </c>
+      <c r="S70">
+        <v>2525</v>
+      </c>
+      <c r="T70">
+        <v>8893.1</v>
+      </c>
+      <c r="U70">
+        <v>584.4</v>
+      </c>
+      <c r="V70">
+        <v>258.10000000000002</v>
+      </c>
+      <c r="W70">
+        <v>0</v>
+      </c>
+      <c r="X70">
+        <v>-225.4</v>
+      </c>
+      <c r="Y70">
+        <v>342.9</v>
+      </c>
+      <c r="Z70">
+        <v>88.8</v>
+      </c>
+      <c r="AA70">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A71" s="1">
+        <v>43190</v>
+      </c>
+      <c r="B71" t="s">
+        <v>94</v>
+      </c>
+      <c r="C71">
+        <v>249.1</v>
+      </c>
+      <c r="D71">
+        <v>930.9</v>
+      </c>
+      <c r="E71">
+        <v>776.7</v>
+      </c>
+      <c r="F71">
+        <v>844.6</v>
+      </c>
+      <c r="G71">
+        <v>3152</v>
+      </c>
+      <c r="H71">
+        <v>13830.2</v>
+      </c>
+      <c r="I71">
+        <v>57.1</v>
+      </c>
+      <c r="J71">
+        <v>2678.8</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>-43.8</v>
+      </c>
+      <c r="N71">
+        <v>942</v>
+      </c>
+      <c r="O71">
+        <v>4717.5</v>
+      </c>
+      <c r="P71">
+        <v>3196.5</v>
+      </c>
+      <c r="Q71">
+        <v>-72.599999999999994</v>
+      </c>
+      <c r="R71">
+        <v>43190</v>
+      </c>
+      <c r="S71">
+        <v>0</v>
+      </c>
+      <c r="T71">
+        <v>9112.7000000000007</v>
+      </c>
+      <c r="U71">
+        <v>511.8</v>
+      </c>
+      <c r="V71">
+        <v>299.3</v>
+      </c>
+      <c r="W71">
+        <v>0</v>
+      </c>
+      <c r="X71">
+        <v>-123.5</v>
+      </c>
+      <c r="Y71">
+        <v>350.2</v>
+      </c>
+      <c r="Z71">
+        <v>-187.8</v>
+      </c>
+      <c r="AA71">
+        <v>249.1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A72" s="1">
+        <v>43281</v>
+      </c>
+      <c r="B72" t="s">
+        <v>95</v>
+      </c>
+      <c r="C72">
+        <v>-457.4</v>
+      </c>
+      <c r="D72">
+        <v>1045</v>
+      </c>
+      <c r="E72">
+        <v>853.7</v>
+      </c>
+      <c r="F72">
+        <v>950.2</v>
+      </c>
+      <c r="G72">
+        <v>2836.1</v>
+      </c>
+      <c r="H72">
+        <v>13490.4</v>
+      </c>
+      <c r="I72">
+        <v>58.8</v>
+      </c>
+      <c r="J72">
+        <v>2564.9</v>
+      </c>
+      <c r="K72">
+        <v>250</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>1044.4000000000001</v>
+      </c>
+      <c r="O72">
+        <v>4723</v>
+      </c>
+      <c r="P72">
+        <v>3204.8</v>
+      </c>
+      <c r="Q72">
+        <v>219.1</v>
+      </c>
+      <c r="R72">
+        <v>43281</v>
+      </c>
+      <c r="S72">
+        <v>0</v>
+      </c>
+      <c r="T72">
+        <v>8767.4</v>
+      </c>
+      <c r="U72">
+        <v>727.5</v>
+      </c>
+      <c r="V72">
+        <v>-343.8</v>
+      </c>
+      <c r="W72">
+        <v>0</v>
+      </c>
+      <c r="X72">
+        <v>7</v>
+      </c>
+      <c r="Y72">
+        <v>361.4</v>
+      </c>
+      <c r="Z72">
+        <v>629.79999999999995</v>
+      </c>
+      <c r="AA72">
+        <v>-457.4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A73" s="1">
+        <v>43373</v>
+      </c>
+      <c r="B73" t="s">
+        <v>96</v>
+      </c>
+      <c r="C73">
+        <v>330.9</v>
+      </c>
+      <c r="D73">
+        <v>1026.5</v>
+      </c>
+      <c r="E73">
+        <v>910.2</v>
+      </c>
+      <c r="F73">
+        <v>935.9</v>
+      </c>
+      <c r="G73">
+        <v>3248.4</v>
+      </c>
+      <c r="H73">
+        <v>13843.6</v>
+      </c>
+      <c r="I73">
+        <v>52.2</v>
+      </c>
+      <c r="J73">
+        <v>2533.3000000000002</v>
+      </c>
+      <c r="K73">
+        <v>250</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>1027.4000000000001</v>
+      </c>
+      <c r="O73">
+        <v>4673.8999999999996</v>
+      </c>
+      <c r="P73">
+        <v>3205.7</v>
+      </c>
+      <c r="Q73">
+        <v>498.3</v>
+      </c>
+      <c r="R73">
+        <v>43373</v>
+      </c>
+      <c r="S73">
+        <v>0</v>
+      </c>
+      <c r="T73">
+        <v>9169.7000000000007</v>
+      </c>
+      <c r="U73">
+        <v>1228.9000000000001</v>
+      </c>
+      <c r="V73">
+        <v>387.1</v>
+      </c>
+      <c r="W73">
+        <v>0</v>
+      </c>
+      <c r="X73">
+        <v>11</v>
+      </c>
+      <c r="Y73">
+        <v>361.2</v>
+      </c>
+      <c r="Z73">
+        <v>143</v>
+      </c>
+      <c r="AA73">
+        <v>330.9</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A74" s="1">
+        <v>43465</v>
+      </c>
+      <c r="B74" t="s">
+        <v>97</v>
+      </c>
+      <c r="C74">
+        <v>-45</v>
+      </c>
+      <c r="D74">
+        <v>1128.8</v>
+      </c>
+      <c r="E74">
+        <v>922.3</v>
+      </c>
+      <c r="F74">
+        <v>1032</v>
+      </c>
+      <c r="G74">
+        <v>3385</v>
+      </c>
+      <c r="H74">
+        <v>13931.9</v>
+      </c>
+      <c r="I74">
+        <v>74.400000000000006</v>
+      </c>
+      <c r="J74">
+        <v>2519</v>
+      </c>
+      <c r="K74">
+        <v>250</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>1174</v>
+      </c>
+      <c r="O74">
+        <v>4766.6000000000004</v>
+      </c>
+      <c r="P74">
+        <v>3224.6</v>
+      </c>
+      <c r="Q74">
+        <v>138.1</v>
+      </c>
+      <c r="R74">
+        <v>43465</v>
+      </c>
+      <c r="S74">
+        <v>2656</v>
+      </c>
+      <c r="T74">
+        <v>9165.2999999999993</v>
+      </c>
+      <c r="U74">
+        <v>1365.5</v>
+      </c>
+      <c r="V74">
+        <v>83.4</v>
+      </c>
+      <c r="W74">
+        <v>0</v>
+      </c>
+      <c r="X74">
+        <v>3.1</v>
+      </c>
+      <c r="Y74">
+        <v>361</v>
+      </c>
+      <c r="Z74">
+        <v>95.5</v>
+      </c>
+      <c r="AA74">
+        <v>-45</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A75" s="1">
+        <v>43555</v>
+      </c>
+      <c r="B75" t="s">
+        <v>98</v>
+      </c>
+      <c r="C75">
+        <v>587.9</v>
+      </c>
+      <c r="D75">
+        <v>1140.4000000000001</v>
+      </c>
+      <c r="E75">
+        <v>1016.3</v>
+      </c>
+      <c r="F75">
+        <v>1054.5999999999999</v>
+      </c>
+      <c r="G75">
+        <v>3650.6</v>
+      </c>
+      <c r="H75">
+        <v>13999.6</v>
+      </c>
+      <c r="I75">
+        <v>659</v>
+      </c>
+      <c r="J75">
+        <v>2501.1</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>-250</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="N75">
+        <v>943.8</v>
+      </c>
+      <c r="O75">
+        <v>4293</v>
+      </c>
+      <c r="P75">
+        <v>2880.7</v>
+      </c>
+      <c r="Q75">
+        <v>179</v>
+      </c>
+      <c r="R75">
+        <v>43555</v>
+      </c>
+      <c r="S75">
+        <v>0</v>
+      </c>
+      <c r="T75">
+        <v>9706.6</v>
+      </c>
+      <c r="U75">
+        <v>1544.8</v>
+      </c>
+      <c r="V75">
+        <v>429.9</v>
+      </c>
+      <c r="W75">
+        <v>0</v>
+      </c>
+      <c r="X75">
+        <v>-252.4</v>
+      </c>
+      <c r="Y75">
+        <v>227.6</v>
+      </c>
+      <c r="Z75">
+        <v>48.8</v>
+      </c>
+      <c r="AA75">
+        <v>587.9</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A76" s="1">
+        <v>43646</v>
+      </c>
+      <c r="B76" t="s">
+        <v>99</v>
+      </c>
+      <c r="C76">
+        <v>459.8</v>
+      </c>
+      <c r="D76">
+        <v>1203.3</v>
+      </c>
+      <c r="E76">
+        <v>1123.5999999999999</v>
+      </c>
+      <c r="F76">
+        <v>1104.0999999999999</v>
+      </c>
+      <c r="G76">
+        <v>4168.5</v>
+      </c>
+      <c r="H76">
+        <v>14567.7</v>
+      </c>
+      <c r="I76">
+        <v>719.2</v>
+      </c>
+      <c r="J76">
+        <v>2490.5</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>1031.5</v>
+      </c>
+      <c r="O76">
+        <v>4404.2</v>
+      </c>
+      <c r="P76">
+        <v>2894.2</v>
+      </c>
+      <c r="Q76">
+        <v>438.4</v>
+      </c>
+      <c r="R76">
+        <v>43646</v>
+      </c>
+      <c r="S76">
+        <v>0</v>
+      </c>
+      <c r="T76">
+        <v>10163.5</v>
+      </c>
+      <c r="U76">
+        <v>1984.2</v>
+      </c>
+      <c r="V76">
+        <v>538.4</v>
+      </c>
+      <c r="W76">
+        <v>0</v>
+      </c>
+      <c r="X76">
+        <v>-61.1</v>
+      </c>
+      <c r="Y76">
+        <v>241</v>
+      </c>
+      <c r="Z76">
+        <v>5.6</v>
+      </c>
+      <c r="AA76">
+        <v>459.8</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A77" s="1">
+        <v>43738</v>
+      </c>
+      <c r="B77" t="s">
+        <v>100</v>
+      </c>
+      <c r="C77">
+        <v>467.6</v>
+      </c>
+      <c r="D77">
+        <v>1263.0999999999999</v>
+      </c>
+      <c r="E77">
+        <v>1116.3</v>
+      </c>
+      <c r="F77">
+        <v>1167.9000000000001</v>
+      </c>
+      <c r="G77">
+        <v>4341.2</v>
+      </c>
+      <c r="H77">
+        <v>14815</v>
+      </c>
+      <c r="I77">
+        <v>860.8</v>
+      </c>
+      <c r="J77">
+        <v>2462.4</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>1091.2</v>
+      </c>
+      <c r="O77">
+        <v>4447.8</v>
+      </c>
+      <c r="P77">
+        <v>2868.9</v>
+      </c>
+      <c r="Q77">
+        <v>218.3</v>
+      </c>
+      <c r="R77">
+        <v>43738</v>
+      </c>
+      <c r="S77">
+        <v>0</v>
+      </c>
+      <c r="T77">
+        <v>10367.200000000001</v>
+      </c>
+      <c r="U77">
+        <v>2171.3000000000002</v>
+      </c>
+      <c r="V77">
+        <v>599.5</v>
+      </c>
+      <c r="W77">
+        <v>0</v>
+      </c>
+      <c r="X77">
+        <v>-365.9</v>
+      </c>
+      <c r="Y77">
+        <v>241</v>
+      </c>
+      <c r="Z77">
+        <v>41.7</v>
+      </c>
+      <c r="AA77">
+        <v>467.6</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A78" s="1">
+        <v>43830</v>
+      </c>
+      <c r="B78" t="s">
+        <v>101</v>
+      </c>
+      <c r="C78">
+        <v>889</v>
+      </c>
+      <c r="D78">
+        <v>1384.3</v>
+      </c>
+      <c r="E78">
+        <v>1243.2</v>
+      </c>
+      <c r="F78">
+        <v>1270</v>
+      </c>
+      <c r="G78">
+        <v>5076.3999999999996</v>
+      </c>
+      <c r="H78">
+        <v>17544.599999999999</v>
+      </c>
+      <c r="I78">
+        <v>74</v>
+      </c>
+      <c r="J78">
+        <v>2416.9</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>1194.3</v>
+      </c>
+      <c r="O78">
+        <v>6272.8</v>
+      </c>
+      <c r="P78">
+        <v>2824.1</v>
+      </c>
+      <c r="Q78">
+        <v>520.6</v>
+      </c>
+      <c r="R78">
+        <v>43830</v>
+      </c>
+      <c r="S78">
+        <v>3082</v>
+      </c>
+      <c r="T78">
+        <v>11271.8</v>
+      </c>
+      <c r="U78">
+        <v>2685.5</v>
+      </c>
+      <c r="V78">
+        <v>517.1</v>
+      </c>
+      <c r="W78">
+        <v>0</v>
+      </c>
+      <c r="X78">
+        <v>-59.7</v>
+      </c>
+      <c r="Y78">
+        <v>237</v>
+      </c>
+      <c r="Z78">
+        <v>87.3</v>
+      </c>
+      <c r="AA78">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A79" s="1">
+        <v>43921</v>
+      </c>
+      <c r="B79" t="s">
+        <v>102</v>
+      </c>
+      <c r="C79">
+        <v>557.6</v>
+      </c>
+      <c r="D79">
+        <v>1444.8</v>
+      </c>
+      <c r="E79">
+        <v>1345.2</v>
+      </c>
+      <c r="F79">
+        <v>1333.1</v>
+      </c>
+      <c r="G79">
+        <v>4870.2</v>
+      </c>
+      <c r="H79">
+        <v>18148.5</v>
+      </c>
+      <c r="I79">
+        <v>862.8</v>
+      </c>
+      <c r="J79">
+        <v>2419.1</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>-32.6</v>
+      </c>
+      <c r="N79">
+        <v>1119.9000000000001</v>
+      </c>
+      <c r="O79">
+        <v>6400.7</v>
+      </c>
+      <c r="P79">
+        <v>2847.3</v>
+      </c>
+      <c r="Q79">
+        <v>-367.8</v>
+      </c>
+      <c r="R79">
+        <v>43921</v>
+      </c>
+      <c r="S79">
+        <v>0</v>
+      </c>
+      <c r="T79">
+        <v>11747.8</v>
+      </c>
+      <c r="U79">
+        <v>2315</v>
+      </c>
+      <c r="V79">
+        <v>549.6</v>
+      </c>
+      <c r="W79">
+        <v>0</v>
+      </c>
+      <c r="X79">
+        <v>-138.19999999999999</v>
+      </c>
+      <c r="Y79">
+        <v>259.39999999999998</v>
+      </c>
+      <c r="Z79">
+        <v>87.5</v>
+      </c>
+      <c r="AA79">
+        <v>557.6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A80" s="1">
+        <v>44012</v>
+      </c>
+      <c r="B80" t="s">
+        <v>103</v>
+      </c>
+      <c r="C80">
+        <v>-1068.0999999999999</v>
+      </c>
+      <c r="D80">
+        <v>1444.6</v>
+      </c>
+      <c r="E80">
+        <v>1372.2</v>
+      </c>
+      <c r="F80">
+        <v>1299.7</v>
+      </c>
+      <c r="G80">
+        <v>5367.9</v>
+      </c>
+      <c r="H80">
+        <v>16703.2</v>
+      </c>
+      <c r="I80">
+        <v>861.6</v>
+      </c>
+      <c r="J80">
+        <v>2381.1999999999998</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>1120.0999999999999</v>
+      </c>
+      <c r="O80">
+        <v>6212.4</v>
+      </c>
+      <c r="P80">
+        <v>2818.6</v>
+      </c>
+      <c r="Q80">
+        <v>517.1</v>
+      </c>
+      <c r="R80">
+        <v>44012</v>
+      </c>
+      <c r="S80">
+        <v>0</v>
+      </c>
+      <c r="T80">
+        <v>10490.8</v>
+      </c>
+      <c r="U80">
+        <v>2825</v>
+      </c>
+      <c r="V80">
+        <v>790</v>
+      </c>
+      <c r="W80">
+        <v>0</v>
+      </c>
+      <c r="X80">
+        <v>-292.5</v>
+      </c>
+      <c r="Y80">
+        <v>265.10000000000002</v>
+      </c>
+      <c r="Z80">
+        <v>21.3</v>
+      </c>
+      <c r="AA80">
+        <v>-1068.0999999999999</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A81" s="1">
+        <v>44104</v>
+      </c>
+      <c r="B81" t="s">
+        <v>104</v>
+      </c>
+      <c r="C81">
+        <v>578.1</v>
+      </c>
+      <c r="D81">
+        <v>1588.7</v>
+      </c>
+      <c r="E81">
+        <v>1437.1</v>
+      </c>
+      <c r="F81">
+        <v>1444</v>
+      </c>
+      <c r="G81">
+        <v>5067.8</v>
+      </c>
+      <c r="H81">
+        <v>17548.400000000001</v>
+      </c>
+      <c r="I81">
+        <v>89.2</v>
+      </c>
+      <c r="J81">
+        <v>2510.9</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>1331</v>
+      </c>
+      <c r="O81">
+        <v>6473.5</v>
+      </c>
+      <c r="P81">
+        <v>2970.6</v>
+      </c>
+      <c r="Q81">
+        <v>-544.4</v>
+      </c>
+      <c r="R81">
+        <v>44104</v>
+      </c>
+      <c r="S81">
+        <v>0</v>
+      </c>
+      <c r="T81">
+        <v>11074.9</v>
+      </c>
+      <c r="U81">
+        <v>2268</v>
+      </c>
+      <c r="V81">
+        <v>822.8</v>
+      </c>
+      <c r="W81">
+        <v>0</v>
+      </c>
+      <c r="X81">
+        <v>-107.4</v>
+      </c>
+      <c r="Y81">
+        <v>275.5</v>
+      </c>
+      <c r="Z81">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="AA81">
+        <v>578.1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A82" s="1">
         <v>44196</v>
       </c>
-      <c r="B42" t="s">
-        <v>67</v>
-      </c>
-      <c r="C42">
+      <c r="B82" t="s">
+        <v>105</v>
+      </c>
+      <c r="C82">
         <v>535.79999999999995</v>
       </c>
-      <c r="D42">
+      <c r="D82">
         <v>1591.8</v>
       </c>
-      <c r="E42">
+      <c r="E82">
         <v>1409.3</v>
       </c>
-      <c r="F42">
+      <c r="F82">
         <v>1439.6</v>
       </c>
-      <c r="G42">
+      <c r="G82">
         <v>5833</v>
       </c>
-      <c r="H42">
+      <c r="H82">
         <v>18103</v>
       </c>
-      <c r="I42">
+      <c r="I82">
         <v>118.6</v>
       </c>
-      <c r="J42">
+      <c r="J82">
         <v>2465</v>
       </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
         <v>1624.7</v>
       </c>
-      <c r="O42">
+      <c r="O82">
         <v>6451.8</v>
       </c>
-      <c r="P42">
+      <c r="P82">
         <v>2931.4</v>
       </c>
-      <c r="Q42">
+      <c r="Q82">
         <v>706.1</v>
       </c>
-      <c r="R42">
+      <c r="R82">
         <v>44196</v>
       </c>
-      <c r="S42">
+      <c r="S82">
         <v>3837</v>
       </c>
-      <c r="T42">
+      <c r="T82">
         <v>11651.2</v>
       </c>
-      <c r="U42">
+      <c r="U82">
         <v>2964.5</v>
       </c>
-      <c r="V42">
+      <c r="V82">
         <v>840.5</v>
       </c>
-      <c r="W42">
-        <v>0</v>
-      </c>
-      <c r="X42">
+      <c r="W82">
+        <v>0</v>
+      </c>
+      <c r="X82">
         <v>-73.8</v>
       </c>
-      <c r="Y42">
+      <c r="Y82">
         <v>244.4</v>
       </c>
-      <c r="Z42">
-        <v>0</v>
-      </c>
-      <c r="AA42">
+      <c r="Z82">
+        <v>0</v>
+      </c>
+      <c r="AA82">
         <v>535.79999999999995</v>
       </c>
     </row>
